--- a/lab7/exp1AllData.xlsx
+++ b/lab7/exp1AllData.xlsx
@@ -19,31 +19,71 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>V1</t>
   </si>
   <si>
-    <t>V2</t>
+    <t>I1 for V2=2.5V</t>
   </si>
   <si>
-    <t>I1</t>
+    <t>I2 for V2=2.5</t>
   </si>
   <si>
-    <t>I2</t>
+    <t>V for V2=2.5</t>
   </si>
   <si>
-    <t>V</t>
+    <t>V2 for V2=2.5</t>
+  </si>
+  <si>
+    <t>V2 for V2=3.5</t>
+  </si>
+  <si>
+    <t>I1 for V2=3.5</t>
+  </si>
+  <si>
+    <t>I2 for V2=3.5</t>
+  </si>
+  <si>
+    <t>V for V2=3.5</t>
+  </si>
+  <si>
+    <t>V2 for V2=4.5</t>
+  </si>
+  <si>
+    <t>I1 for V2=4.5</t>
+  </si>
+  <si>
+    <t>I2 for V2=4.5</t>
+  </si>
+  <si>
+    <t>V for V2=4.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -66,14 +106,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -403,56 +447,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O302"/>
+  <dimension ref="A1:Q302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>10</v>
+      </c>
+      <c r="P1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>2</v>
       </c>
@@ -480,20 +524,20 @@
       <c r="J2">
         <v>4.1139999999999999</v>
       </c>
-      <c r="L2">
-        <v>4.5</v>
-      </c>
-      <c r="M2" s="1">
+      <c r="N2">
+        <v>4.5</v>
+      </c>
+      <c r="O2" s="1">
         <v>1.31E-6</v>
       </c>
-      <c r="N2" s="1">
+      <c r="P2" s="1">
         <v>2.0899999999999999E-6</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>4.1139999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>2.0033333333300001</v>
       </c>
@@ -521,20 +565,20 @@
       <c r="J3">
         <v>3.9</v>
       </c>
-      <c r="L3">
-        <v>4.5</v>
-      </c>
-      <c r="M3" s="1">
+      <c r="N3">
+        <v>4.5</v>
+      </c>
+      <c r="O3" s="1">
         <v>1.28E-6</v>
       </c>
-      <c r="N3" s="1">
+      <c r="P3" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>3.8460000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>2.0066666666700002</v>
       </c>
@@ -562,20 +606,20 @@
       <c r="J4">
         <v>3.6779999999999999</v>
       </c>
-      <c r="L4">
-        <v>4.5</v>
-      </c>
-      <c r="M4" s="1">
+      <c r="N4">
+        <v>4.5</v>
+      </c>
+      <c r="O4" s="1">
         <v>1.2699999999999999E-6</v>
       </c>
-      <c r="N4" s="1">
+      <c r="P4" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>3.6779999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>2.0099999999999998</v>
       </c>
@@ -603,20 +647,20 @@
       <c r="J5">
         <v>3.468</v>
       </c>
-      <c r="L5">
-        <v>4.5</v>
-      </c>
-      <c r="M5" s="1">
+      <c r="N5">
+        <v>4.5</v>
+      </c>
+      <c r="O5" s="1">
         <v>1.26E-6</v>
       </c>
-      <c r="N5" s="1">
+      <c r="P5" s="1">
         <v>2.0700000000000001E-6</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>3.5179999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>2.0133333333299999</v>
       </c>
@@ -644,20 +688,20 @@
       <c r="J6">
         <v>3.2679999999999998</v>
       </c>
-      <c r="L6">
-        <v>4.5</v>
-      </c>
-      <c r="M6" s="1">
+      <c r="N6">
+        <v>4.5</v>
+      </c>
+      <c r="O6" s="1">
         <v>1.26E-6</v>
       </c>
-      <c r="N6" s="1">
+      <c r="P6" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>3.3639999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>2.0166666666699999</v>
       </c>
@@ -685,20 +729,20 @@
       <c r="J7">
         <v>3.0779999999999998</v>
       </c>
-      <c r="L7">
-        <v>4.5</v>
-      </c>
-      <c r="M7" s="1">
+      <c r="N7">
+        <v>4.5</v>
+      </c>
+      <c r="O7" s="1">
         <v>1.26E-6</v>
       </c>
-      <c r="N7" s="1">
+      <c r="P7" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>3.22</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>2.02</v>
       </c>
@@ -726,20 +770,20 @@
       <c r="J8">
         <v>2.8959999999999999</v>
       </c>
-      <c r="L8">
-        <v>4.5</v>
-      </c>
-      <c r="M8" s="1">
+      <c r="N8">
+        <v>4.5</v>
+      </c>
+      <c r="O8" s="1">
         <v>1.2500000000000001E-6</v>
       </c>
-      <c r="N8" s="1">
+      <c r="P8" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>3.1240000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>2.0233333333300001</v>
       </c>
@@ -767,20 +811,20 @@
       <c r="J9">
         <v>2.722</v>
       </c>
-      <c r="L9">
-        <v>4.5</v>
-      </c>
-      <c r="M9" s="1">
+      <c r="N9">
+        <v>4.5</v>
+      </c>
+      <c r="O9" s="1">
         <v>1.2500000000000001E-6</v>
       </c>
-      <c r="N9" s="1">
+      <c r="P9" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>3.1040000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>2.0266666666700002</v>
       </c>
@@ -808,20 +852,20 @@
       <c r="J10">
         <v>2.5579999999999998</v>
       </c>
-      <c r="L10">
-        <v>4.5</v>
-      </c>
-      <c r="M10" s="1">
+      <c r="N10">
+        <v>4.5</v>
+      </c>
+      <c r="O10" s="1">
         <v>1.2300000000000001E-6</v>
       </c>
-      <c r="N10" s="1">
+      <c r="P10" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>3.1</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>2.0299999999999998</v>
       </c>
@@ -849,20 +893,20 @@
       <c r="J11">
         <v>2.4060000000000001</v>
       </c>
-      <c r="L11">
-        <v>4.5</v>
-      </c>
-      <c r="M11" s="1">
+      <c r="N11">
+        <v>4.5</v>
+      </c>
+      <c r="O11" s="1">
         <v>1.2300000000000001E-6</v>
       </c>
-      <c r="N11" s="1">
+      <c r="P11" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>3.0979999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>2.0333333333299999</v>
       </c>
@@ -890,20 +934,20 @@
       <c r="J12">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L12">
-        <v>4.5</v>
-      </c>
-      <c r="M12" s="1">
+      <c r="N12">
+        <v>4.5</v>
+      </c>
+      <c r="O12" s="1">
         <v>1.2300000000000001E-6</v>
       </c>
-      <c r="N12" s="1">
+      <c r="P12" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>3.0960000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>2.03666666667</v>
       </c>
@@ -931,20 +975,20 @@
       <c r="J13">
         <v>2.2799999999999998</v>
       </c>
-      <c r="L13">
-        <v>4.5</v>
-      </c>
-      <c r="M13" s="1">
+      <c r="N13">
+        <v>4.5</v>
+      </c>
+      <c r="O13" s="1">
         <v>1.2300000000000001E-6</v>
       </c>
-      <c r="N13" s="1">
+      <c r="P13" s="1">
         <v>2.0899999999999999E-6</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>3.0960000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>2.04</v>
       </c>
@@ -972,20 +1016,20 @@
       <c r="J14">
         <v>2.2759999999999998</v>
       </c>
-      <c r="L14">
-        <v>4.5</v>
-      </c>
-      <c r="M14" s="1">
+      <c r="N14">
+        <v>4.5</v>
+      </c>
+      <c r="O14" s="1">
         <v>1.2100000000000001E-6</v>
       </c>
-      <c r="N14" s="1">
+      <c r="P14" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>3.0960000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:17">
       <c r="A15">
         <v>2.0433333333300001</v>
       </c>
@@ -1013,20 +1057,20 @@
       <c r="J15">
         <v>2.274</v>
       </c>
-      <c r="L15">
-        <v>4.5</v>
-      </c>
-      <c r="M15" s="1">
+      <c r="N15">
+        <v>4.5</v>
+      </c>
+      <c r="O15" s="1">
         <v>1.22E-6</v>
       </c>
-      <c r="N15" s="1">
+      <c r="P15" s="1">
         <v>2.0899999999999999E-6</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>3.0960000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:17">
       <c r="A16">
         <v>2.0466666666700002</v>
       </c>
@@ -1054,20 +1098,20 @@
       <c r="J16">
         <v>2.2719999999999998</v>
       </c>
-      <c r="L16">
-        <v>4.5</v>
-      </c>
-      <c r="M16" s="1">
+      <c r="N16">
+        <v>4.5</v>
+      </c>
+      <c r="O16" s="1">
         <v>1.2100000000000001E-6</v>
       </c>
-      <c r="N16" s="1">
+      <c r="P16" s="1">
         <v>2.0899999999999999E-6</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>3.0960000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:17">
       <c r="A17">
         <v>2.0499999999999998</v>
       </c>
@@ -1095,20 +1139,20 @@
       <c r="J17">
         <v>2.2719999999999998</v>
       </c>
-      <c r="L17">
-        <v>4.5</v>
-      </c>
-      <c r="M17" s="1">
+      <c r="N17">
+        <v>4.5</v>
+      </c>
+      <c r="O17" s="1">
         <v>1.2100000000000001E-6</v>
       </c>
-      <c r="N17" s="1">
+      <c r="P17" s="1">
         <v>2.0899999999999999E-6</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>3.0960000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:17">
       <c r="A18">
         <v>2.0533333333299999</v>
       </c>
@@ -1136,20 +1180,20 @@
       <c r="J18">
         <v>2.2719999999999998</v>
       </c>
-      <c r="L18">
-        <v>4.5</v>
-      </c>
-      <c r="M18" s="1">
+      <c r="N18">
+        <v>4.5</v>
+      </c>
+      <c r="O18" s="1">
         <v>1.1999999999999999E-6</v>
       </c>
-      <c r="N18" s="1">
+      <c r="P18" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:17">
       <c r="A19">
         <v>2.05666666667</v>
       </c>
@@ -1177,20 +1221,20 @@
       <c r="J19">
         <v>2.2719999999999998</v>
       </c>
-      <c r="L19">
-        <v>4.5</v>
-      </c>
-      <c r="M19" s="1">
+      <c r="N19">
+        <v>4.5</v>
+      </c>
+      <c r="O19" s="1">
         <v>1.19E-6</v>
       </c>
-      <c r="N19" s="1">
+      <c r="P19" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:17">
       <c r="A20">
         <v>2.06</v>
       </c>
@@ -1218,20 +1262,20 @@
       <c r="J20">
         <v>2.2719999999999998</v>
       </c>
-      <c r="L20">
-        <v>4.5</v>
-      </c>
-      <c r="M20" s="1">
+      <c r="N20">
+        <v>4.5</v>
+      </c>
+      <c r="O20" s="1">
         <v>1.19E-6</v>
       </c>
-      <c r="N20" s="1">
+      <c r="P20" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:17">
       <c r="A21">
         <v>2.0633333333300001</v>
       </c>
@@ -1259,20 +1303,20 @@
       <c r="J21">
         <v>2.2719999999999998</v>
       </c>
-      <c r="L21">
-        <v>4.5</v>
-      </c>
-      <c r="M21" s="1">
+      <c r="N21">
+        <v>4.5</v>
+      </c>
+      <c r="O21" s="1">
         <v>1.19E-6</v>
       </c>
-      <c r="N21" s="1">
+      <c r="P21" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:17">
       <c r="A22">
         <v>2.0666666666700002</v>
       </c>
@@ -1300,20 +1344,20 @@
       <c r="J22">
         <v>2.2719999999999998</v>
       </c>
-      <c r="L22">
-        <v>4.5</v>
-      </c>
-      <c r="M22" s="1">
+      <c r="N22">
+        <v>4.5</v>
+      </c>
+      <c r="O22" s="1">
         <v>1.19E-6</v>
       </c>
-      <c r="N22" s="1">
+      <c r="P22" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:17">
       <c r="A23">
         <v>2.0699999999999998</v>
       </c>
@@ -1341,20 +1385,20 @@
       <c r="J23">
         <v>2.2719999999999998</v>
       </c>
-      <c r="L23">
-        <v>4.5</v>
-      </c>
-      <c r="M23" s="1">
+      <c r="N23">
+        <v>4.5</v>
+      </c>
+      <c r="O23" s="1">
         <v>1.1799999999999999E-6</v>
       </c>
-      <c r="N23" s="1">
+      <c r="P23" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:17">
       <c r="A24">
         <v>2.0733333333299999</v>
       </c>
@@ -1382,20 +1426,20 @@
       <c r="J24">
         <v>2.2719999999999998</v>
       </c>
-      <c r="L24">
-        <v>4.5</v>
-      </c>
-      <c r="M24" s="1">
+      <c r="N24">
+        <v>4.5</v>
+      </c>
+      <c r="O24" s="1">
         <v>1.17E-6</v>
       </c>
-      <c r="N24" s="1">
+      <c r="P24" s="1">
         <v>2.0899999999999999E-6</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:17">
       <c r="A25">
         <v>2.07666666667</v>
       </c>
@@ -1423,20 +1467,20 @@
       <c r="J25">
         <v>2.2719999999999998</v>
       </c>
-      <c r="L25">
-        <v>4.5</v>
-      </c>
-      <c r="M25" s="1">
+      <c r="N25">
+        <v>4.5</v>
+      </c>
+      <c r="O25" s="1">
         <v>1.1599999999999999E-6</v>
       </c>
-      <c r="N25" s="1">
+      <c r="P25" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:17">
       <c r="A26">
         <v>2.08</v>
       </c>
@@ -1464,20 +1508,20 @@
       <c r="J26">
         <v>2.27</v>
       </c>
-      <c r="L26">
-        <v>4.5</v>
-      </c>
-      <c r="M26" s="1">
+      <c r="N26">
+        <v>4.5</v>
+      </c>
+      <c r="O26" s="1">
         <v>1.1599999999999999E-6</v>
       </c>
-      <c r="N26" s="1">
+      <c r="P26" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O26">
+      <c r="Q26">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:17">
       <c r="A27">
         <v>2.0833333333300001</v>
       </c>
@@ -1505,20 +1549,20 @@
       <c r="J27">
         <v>2.27</v>
       </c>
-      <c r="L27">
-        <v>4.5</v>
-      </c>
-      <c r="M27" s="1">
+      <c r="N27">
+        <v>4.5</v>
+      </c>
+      <c r="O27" s="1">
         <v>1.1599999999999999E-6</v>
       </c>
-      <c r="N27" s="1">
+      <c r="P27" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O27">
+      <c r="Q27">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:17">
       <c r="A28">
         <v>2.0866666666699998</v>
       </c>
@@ -1546,20 +1590,20 @@
       <c r="J28">
         <v>2.27</v>
       </c>
-      <c r="L28">
-        <v>4.5</v>
-      </c>
-      <c r="M28" s="1">
+      <c r="N28">
+        <v>4.5</v>
+      </c>
+      <c r="O28" s="1">
         <v>1.15E-6</v>
       </c>
-      <c r="N28" s="1">
+      <c r="P28" s="1">
         <v>2.0899999999999999E-6</v>
       </c>
-      <c r="O28">
+      <c r="Q28">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:17">
       <c r="A29">
         <v>2.09</v>
       </c>
@@ -1587,20 +1631,20 @@
       <c r="J29">
         <v>2.27</v>
       </c>
-      <c r="L29">
-        <v>4.5</v>
-      </c>
-      <c r="M29" s="1">
+      <c r="N29">
+        <v>4.5</v>
+      </c>
+      <c r="O29" s="1">
         <v>1.15E-6</v>
       </c>
-      <c r="N29" s="1">
+      <c r="P29" s="1">
         <v>2.0899999999999999E-6</v>
       </c>
-      <c r="O29">
+      <c r="Q29">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:17">
       <c r="A30">
         <v>2.0933333333299999</v>
       </c>
@@ -1628,20 +1672,20 @@
       <c r="J30">
         <v>2.27</v>
       </c>
-      <c r="L30">
-        <v>4.5</v>
-      </c>
-      <c r="M30" s="1">
+      <c r="N30">
+        <v>4.5</v>
+      </c>
+      <c r="O30" s="1">
         <v>1.1400000000000001E-6</v>
       </c>
-      <c r="N30" s="1">
+      <c r="P30" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O30">
+      <c r="Q30">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:17">
       <c r="A31">
         <v>2.09666666667</v>
       </c>
@@ -1669,20 +1713,20 @@
       <c r="J31">
         <v>2.27</v>
       </c>
-      <c r="L31">
-        <v>4.5</v>
-      </c>
-      <c r="M31" s="1">
+      <c r="N31">
+        <v>4.5</v>
+      </c>
+      <c r="O31" s="1">
         <v>1.1400000000000001E-6</v>
       </c>
-      <c r="N31" s="1">
+      <c r="P31" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O31">
+      <c r="Q31">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:17">
       <c r="A32">
         <v>2.1</v>
       </c>
@@ -1710,20 +1754,20 @@
       <c r="J32">
         <v>2.27</v>
       </c>
-      <c r="L32">
-        <v>4.5</v>
-      </c>
-      <c r="M32" s="1">
+      <c r="N32">
+        <v>4.5</v>
+      </c>
+      <c r="O32" s="1">
         <v>1.13E-6</v>
       </c>
-      <c r="N32" s="1">
+      <c r="P32" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O32">
+      <c r="Q32">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:17">
       <c r="A33">
         <v>2.1033333333300002</v>
       </c>
@@ -1751,20 +1795,20 @@
       <c r="J33">
         <v>2.27</v>
       </c>
-      <c r="L33">
-        <v>4.5</v>
-      </c>
-      <c r="M33" s="1">
+      <c r="N33">
+        <v>4.5</v>
+      </c>
+      <c r="O33" s="1">
         <v>1.13E-6</v>
       </c>
-      <c r="N33" s="1">
+      <c r="P33" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O33">
+      <c r="Q33">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:17">
       <c r="A34">
         <v>2.1066666666699998</v>
       </c>
@@ -1792,20 +1836,20 @@
       <c r="J34">
         <v>2.27</v>
       </c>
-      <c r="L34">
-        <v>4.5</v>
-      </c>
-      <c r="M34" s="1">
+      <c r="N34">
+        <v>4.5</v>
+      </c>
+      <c r="O34" s="1">
         <v>1.1200000000000001E-6</v>
       </c>
-      <c r="N34" s="1">
+      <c r="P34" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O34">
+      <c r="Q34">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:17">
       <c r="A35">
         <v>2.11</v>
       </c>
@@ -1833,20 +1877,20 @@
       <c r="J35">
         <v>2.27</v>
       </c>
-      <c r="L35">
-        <v>4.5</v>
-      </c>
-      <c r="M35" s="1">
+      <c r="N35">
+        <v>4.5</v>
+      </c>
+      <c r="O35" s="1">
         <v>1.1200000000000001E-6</v>
       </c>
-      <c r="N35" s="1">
+      <c r="P35" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O35">
+      <c r="Q35">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:17">
       <c r="A36">
         <v>2.11333333333</v>
       </c>
@@ -1874,20 +1918,20 @@
       <c r="J36">
         <v>2.27</v>
       </c>
-      <c r="L36">
-        <v>4.5</v>
-      </c>
-      <c r="M36" s="1">
+      <c r="N36">
+        <v>4.5</v>
+      </c>
+      <c r="O36" s="1">
         <v>1.1200000000000001E-6</v>
       </c>
-      <c r="N36" s="1">
+      <c r="P36" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O36">
+      <c r="Q36">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:17">
       <c r="A37">
         <v>2.11666666667</v>
       </c>
@@ -1915,20 +1959,20 @@
       <c r="J37">
         <v>2.27</v>
       </c>
-      <c r="L37">
-        <v>4.5</v>
-      </c>
-      <c r="M37" s="1">
+      <c r="N37">
+        <v>4.5</v>
+      </c>
+      <c r="O37" s="1">
         <v>1.1200000000000001E-6</v>
       </c>
-      <c r="N37" s="1">
+      <c r="P37" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O37">
+      <c r="Q37">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:17">
       <c r="A38">
         <v>2.12</v>
       </c>
@@ -1956,20 +2000,20 @@
       <c r="J38">
         <v>2.27</v>
       </c>
-      <c r="L38">
-        <v>4.5</v>
-      </c>
-      <c r="M38" s="1">
+      <c r="N38">
+        <v>4.5</v>
+      </c>
+      <c r="O38" s="1">
         <v>1.11E-6</v>
       </c>
-      <c r="N38" s="1">
+      <c r="P38" s="1">
         <v>2.0899999999999999E-6</v>
       </c>
-      <c r="O38">
+      <c r="Q38">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:17">
       <c r="A39">
         <v>2.1233333333300002</v>
       </c>
@@ -1997,20 +2041,20 @@
       <c r="J39">
         <v>2.27</v>
       </c>
-      <c r="L39">
-        <v>4.5</v>
-      </c>
-      <c r="M39" s="1">
+      <c r="N39">
+        <v>4.5</v>
+      </c>
+      <c r="O39" s="1">
         <v>1.1000000000000001E-6</v>
       </c>
-      <c r="N39" s="1">
+      <c r="P39" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O39">
+      <c r="Q39">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:17">
       <c r="A40">
         <v>2.1266666666699998</v>
       </c>
@@ -2038,20 +2082,20 @@
       <c r="J40">
         <v>2.27</v>
       </c>
-      <c r="L40">
-        <v>4.5</v>
-      </c>
-      <c r="M40" s="1">
+      <c r="N40">
+        <v>4.5</v>
+      </c>
+      <c r="O40" s="1">
         <v>1.1000000000000001E-6</v>
       </c>
-      <c r="N40" s="1">
+      <c r="P40" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O40">
+      <c r="Q40">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:17">
       <c r="A41">
         <v>2.13</v>
       </c>
@@ -2079,20 +2123,20 @@
       <c r="J41">
         <v>2.27</v>
       </c>
-      <c r="L41">
-        <v>4.5</v>
-      </c>
-      <c r="M41" s="1">
+      <c r="N41">
+        <v>4.5</v>
+      </c>
+      <c r="O41" s="1">
         <v>1.0899999999999999E-6</v>
       </c>
-      <c r="N41" s="1">
+      <c r="P41" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O41">
+      <c r="Q41">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:17">
       <c r="A42">
         <v>2.13333333333</v>
       </c>
@@ -2120,20 +2164,20 @@
       <c r="J42">
         <v>2.27</v>
       </c>
-      <c r="L42">
-        <v>4.5</v>
-      </c>
-      <c r="M42" s="1">
+      <c r="N42">
+        <v>4.5</v>
+      </c>
+      <c r="O42" s="1">
         <v>1.0899999999999999E-6</v>
       </c>
-      <c r="N42" s="1">
+      <c r="P42" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O42">
+      <c r="Q42">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:17">
       <c r="A43">
         <v>2.13666666667</v>
       </c>
@@ -2161,20 +2205,20 @@
       <c r="J43">
         <v>2.27</v>
       </c>
-      <c r="L43">
-        <v>4.5</v>
-      </c>
-      <c r="M43" s="1">
+      <c r="N43">
+        <v>4.5</v>
+      </c>
+      <c r="O43" s="1">
         <v>1.0899999999999999E-6</v>
       </c>
-      <c r="N43" s="1">
+      <c r="P43" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O43">
+      <c r="Q43">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:17">
       <c r="A44">
         <v>2.14</v>
       </c>
@@ -2202,20 +2246,20 @@
       <c r="J44">
         <v>2.27</v>
       </c>
-      <c r="L44">
-        <v>4.5</v>
-      </c>
-      <c r="M44" s="1">
+      <c r="N44">
+        <v>4.5</v>
+      </c>
+      <c r="O44" s="1">
         <v>1.08E-6</v>
       </c>
-      <c r="N44" s="1">
+      <c r="P44" s="1">
         <v>2.0899999999999999E-6</v>
       </c>
-      <c r="O44">
+      <c r="Q44">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:17">
       <c r="A45">
         <v>2.1433333333300002</v>
       </c>
@@ -2243,20 +2287,20 @@
       <c r="J45">
         <v>2.27</v>
       </c>
-      <c r="L45">
-        <v>4.5</v>
-      </c>
-      <c r="M45" s="1">
+      <c r="N45">
+        <v>4.5</v>
+      </c>
+      <c r="O45" s="1">
         <v>1.08E-6</v>
       </c>
-      <c r="N45" s="1">
+      <c r="P45" s="1">
         <v>2.0899999999999999E-6</v>
       </c>
-      <c r="O45">
+      <c r="Q45">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:17">
       <c r="A46">
         <v>2.1466666666699998</v>
       </c>
@@ -2284,20 +2328,20 @@
       <c r="J46">
         <v>2.27</v>
       </c>
-      <c r="L46">
-        <v>4.5</v>
-      </c>
-      <c r="M46" s="1">
+      <c r="N46">
+        <v>4.5</v>
+      </c>
+      <c r="O46" s="1">
         <v>1.0699999999999999E-6</v>
       </c>
-      <c r="N46" s="1">
+      <c r="P46" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O46">
+      <c r="Q46">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:17">
       <c r="A47">
         <v>2.15</v>
       </c>
@@ -2325,20 +2369,20 @@
       <c r="J47">
         <v>2.27</v>
       </c>
-      <c r="L47">
-        <v>4.5</v>
-      </c>
-      <c r="M47" s="1">
+      <c r="N47">
+        <v>4.5</v>
+      </c>
+      <c r="O47" s="1">
         <v>1.0699999999999999E-6</v>
       </c>
-      <c r="N47" s="1">
+      <c r="P47" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O47">
+      <c r="Q47">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:17">
       <c r="A48">
         <v>2.15333333333</v>
       </c>
@@ -2366,20 +2410,20 @@
       <c r="J48">
         <v>2.27</v>
       </c>
-      <c r="L48">
-        <v>4.5</v>
-      </c>
-      <c r="M48" s="1">
+      <c r="N48">
+        <v>4.5</v>
+      </c>
+      <c r="O48" s="1">
         <v>1.0699999999999999E-6</v>
       </c>
-      <c r="N48" s="1">
+      <c r="P48" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O48">
+      <c r="Q48">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:17">
       <c r="A49">
         <v>2.1566666666700001</v>
       </c>
@@ -2407,20 +2451,20 @@
       <c r="J49">
         <v>2.27</v>
       </c>
-      <c r="L49">
-        <v>4.5</v>
-      </c>
-      <c r="M49" s="1">
+      <c r="N49">
+        <v>4.5</v>
+      </c>
+      <c r="O49" s="1">
         <v>1.0499999999999999E-6</v>
       </c>
-      <c r="N49" s="1">
+      <c r="P49" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O49">
+      <c r="Q49">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:17">
       <c r="A50">
         <v>2.16</v>
       </c>
@@ -2448,20 +2492,20 @@
       <c r="J50">
         <v>2.27</v>
       </c>
-      <c r="L50">
-        <v>4.5</v>
-      </c>
-      <c r="M50" s="1">
+      <c r="N50">
+        <v>4.5</v>
+      </c>
+      <c r="O50" s="1">
         <v>1.0499999999999999E-6</v>
       </c>
-      <c r="N50" s="1">
+      <c r="P50" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O50">
+      <c r="Q50">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:17">
       <c r="A51">
         <v>2.1633333333300002</v>
       </c>
@@ -2489,20 +2533,20 @@
       <c r="J51">
         <v>2.27</v>
       </c>
-      <c r="L51">
-        <v>4.5</v>
-      </c>
-      <c r="M51" s="1">
+      <c r="N51">
+        <v>4.5</v>
+      </c>
+      <c r="O51" s="1">
         <v>1.0499999999999999E-6</v>
       </c>
-      <c r="N51" s="1">
+      <c r="P51" s="1">
         <v>2.0899999999999999E-6</v>
       </c>
-      <c r="O51">
+      <c r="Q51">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:17">
       <c r="A52">
         <v>2.1666666666699999</v>
       </c>
@@ -2530,20 +2574,20 @@
       <c r="J52">
         <v>2.27</v>
       </c>
-      <c r="L52">
-        <v>4.5</v>
-      </c>
-      <c r="M52" s="1">
+      <c r="N52">
+        <v>4.5</v>
+      </c>
+      <c r="O52" s="1">
         <v>1.04E-6</v>
       </c>
-      <c r="N52" s="1">
+      <c r="P52" s="1">
         <v>2.0899999999999999E-6</v>
       </c>
-      <c r="O52">
+      <c r="Q52">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:17">
       <c r="A53">
         <v>2.17</v>
       </c>
@@ -2571,20 +2615,20 @@
       <c r="J53">
         <v>2.27</v>
       </c>
-      <c r="L53">
-        <v>4.5</v>
-      </c>
-      <c r="M53" s="1">
+      <c r="N53">
+        <v>4.5</v>
+      </c>
+      <c r="O53" s="1">
         <v>1.04E-6</v>
       </c>
-      <c r="N53" s="1">
+      <c r="P53" s="1">
         <v>2.0899999999999999E-6</v>
       </c>
-      <c r="O53">
+      <c r="Q53">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:17">
       <c r="A54">
         <v>2.17333333333</v>
       </c>
@@ -2612,20 +2656,20 @@
       <c r="J54">
         <v>2.27</v>
       </c>
-      <c r="L54">
-        <v>4.5</v>
-      </c>
-      <c r="M54" s="1">
+      <c r="N54">
+        <v>4.5</v>
+      </c>
+      <c r="O54" s="1">
         <v>1.04E-6</v>
       </c>
-      <c r="N54" s="1">
+      <c r="P54" s="1">
         <v>2.0899999999999999E-6</v>
       </c>
-      <c r="O54">
+      <c r="Q54">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:17">
       <c r="A55">
         <v>2.1766666666700001</v>
       </c>
@@ -2653,20 +2697,20 @@
       <c r="J55">
         <v>2.27</v>
       </c>
-      <c r="L55">
-        <v>4.5</v>
-      </c>
-      <c r="M55" s="1">
+      <c r="N55">
+        <v>4.5</v>
+      </c>
+      <c r="O55" s="1">
         <v>1.04E-6</v>
       </c>
-      <c r="N55" s="1">
+      <c r="P55" s="1">
         <v>2.0899999999999999E-6</v>
       </c>
-      <c r="O55">
+      <c r="Q55">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:17">
       <c r="A56">
         <v>2.1800000000000002</v>
       </c>
@@ -2694,20 +2738,20 @@
       <c r="J56">
         <v>2.27</v>
       </c>
-      <c r="L56">
-        <v>4.5</v>
-      </c>
-      <c r="M56" s="1">
+      <c r="N56">
+        <v>4.5</v>
+      </c>
+      <c r="O56" s="1">
         <v>1.0300000000000001E-6</v>
       </c>
-      <c r="N56" s="1">
+      <c r="P56" s="1">
         <v>2.0899999999999999E-6</v>
       </c>
-      <c r="O56">
+      <c r="Q56">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:17">
       <c r="A57">
         <v>2.1833333333299998</v>
       </c>
@@ -2735,20 +2779,20 @@
       <c r="J57">
         <v>2.27</v>
       </c>
-      <c r="L57">
-        <v>4.5</v>
-      </c>
-      <c r="M57" s="1">
+      <c r="N57">
+        <v>4.5</v>
+      </c>
+      <c r="O57" s="1">
         <v>1.02E-6</v>
       </c>
-      <c r="N57" s="1">
+      <c r="P57" s="1">
         <v>2.0899999999999999E-6</v>
       </c>
-      <c r="O57">
+      <c r="Q57">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:17">
       <c r="A58">
         <v>2.1866666666699999</v>
       </c>
@@ -2776,20 +2820,20 @@
       <c r="J58">
         <v>2.27</v>
       </c>
-      <c r="L58">
-        <v>4.5</v>
-      </c>
-      <c r="M58" s="1">
+      <c r="N58">
+        <v>4.5</v>
+      </c>
+      <c r="O58" s="1">
         <v>1.02E-6</v>
       </c>
-      <c r="N58" s="1">
+      <c r="P58" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O58">
+      <c r="Q58">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:17">
       <c r="A59">
         <v>2.19</v>
       </c>
@@ -2817,20 +2861,20 @@
       <c r="J59">
         <v>2.27</v>
       </c>
-      <c r="L59">
-        <v>4.5</v>
-      </c>
-      <c r="M59" s="1">
+      <c r="N59">
+        <v>4.5</v>
+      </c>
+      <c r="O59" s="1">
         <v>1.0100000000000001E-6</v>
       </c>
-      <c r="N59" s="1">
+      <c r="P59" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O59">
+      <c r="Q59">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:17">
       <c r="A60">
         <v>2.19333333333</v>
       </c>
@@ -2858,20 +2902,20 @@
       <c r="J60">
         <v>2.27</v>
       </c>
-      <c r="L60">
-        <v>4.5</v>
-      </c>
-      <c r="M60" s="1">
+      <c r="N60">
+        <v>4.5</v>
+      </c>
+      <c r="O60" s="1">
         <v>1.02E-6</v>
       </c>
-      <c r="N60" s="1">
+      <c r="P60" s="1">
         <v>2.0899999999999999E-6</v>
       </c>
-      <c r="O60">
+      <c r="Q60">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:17">
       <c r="A61">
         <v>2.1966666666700001</v>
       </c>
@@ -2899,20 +2943,20 @@
       <c r="J61">
         <v>2.27</v>
       </c>
-      <c r="L61">
-        <v>4.5</v>
-      </c>
-      <c r="M61" s="1">
+      <c r="N61">
+        <v>4.5</v>
+      </c>
+      <c r="O61" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="N61" s="1">
+      <c r="P61" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O61">
+      <c r="Q61">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:17">
       <c r="A62">
         <v>2.2000000000000002</v>
       </c>
@@ -2940,20 +2984,20 @@
       <c r="J62">
         <v>2.27</v>
       </c>
-      <c r="L62">
-        <v>4.5</v>
-      </c>
-      <c r="M62" s="1">
+      <c r="N62">
+        <v>4.5</v>
+      </c>
+      <c r="O62" s="1">
         <v>9.9000000000000005E-7</v>
       </c>
-      <c r="N62" s="1">
+      <c r="P62" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O62">
+      <c r="Q62">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:17">
       <c r="A63">
         <v>2.2033333333299998</v>
       </c>
@@ -2981,20 +3025,20 @@
       <c r="J63">
         <v>2.27</v>
       </c>
-      <c r="L63">
-        <v>4.5</v>
-      </c>
-      <c r="M63" s="1">
+      <c r="N63">
+        <v>4.5</v>
+      </c>
+      <c r="O63" s="1">
         <v>9.95E-7</v>
       </c>
-      <c r="N63" s="1">
+      <c r="P63" s="1">
         <v>2.0899999999999999E-6</v>
       </c>
-      <c r="O63">
+      <c r="Q63">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:17">
       <c r="A64">
         <v>2.2066666666699999</v>
       </c>
@@ -3022,20 +3066,20 @@
       <c r="J64">
         <v>2.27</v>
       </c>
-      <c r="L64">
-        <v>4.5</v>
-      </c>
-      <c r="M64" s="1">
+      <c r="N64">
+        <v>4.5</v>
+      </c>
+      <c r="O64" s="1">
         <v>9.8100000000000001E-7</v>
       </c>
-      <c r="N64" s="1">
+      <c r="P64" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O64">
+      <c r="Q64">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:17">
       <c r="A65">
         <v>2.21</v>
       </c>
@@ -3063,20 +3107,20 @@
       <c r="J65">
         <v>2.27</v>
       </c>
-      <c r="L65">
-        <v>4.5</v>
-      </c>
-      <c r="M65" s="1">
+      <c r="N65">
+        <v>4.5</v>
+      </c>
+      <c r="O65" s="1">
         <v>9.9099999999999991E-7</v>
       </c>
-      <c r="N65" s="1">
+      <c r="P65" s="1">
         <v>2.0899999999999999E-6</v>
       </c>
-      <c r="O65">
+      <c r="Q65">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:17">
       <c r="A66">
         <v>2.21333333333</v>
       </c>
@@ -3104,20 +3148,20 @@
       <c r="J66">
         <v>2.27</v>
       </c>
-      <c r="L66">
-        <v>4.5</v>
-      </c>
-      <c r="M66" s="1">
+      <c r="N66">
+        <v>4.5</v>
+      </c>
+      <c r="O66" s="1">
         <v>9.7699999999999992E-7</v>
       </c>
-      <c r="N66" s="1">
+      <c r="P66" s="1">
         <v>2.0899999999999999E-6</v>
       </c>
-      <c r="O66">
+      <c r="Q66">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:17">
       <c r="A67">
         <v>2.2166666666700001</v>
       </c>
@@ -3145,20 +3189,20 @@
       <c r="J67">
         <v>2.27</v>
       </c>
-      <c r="L67">
-        <v>4.5</v>
-      </c>
-      <c r="M67" s="1">
+      <c r="N67">
+        <v>4.5</v>
+      </c>
+      <c r="O67" s="1">
         <v>9.7100000000000011E-7</v>
       </c>
-      <c r="N67" s="1">
+      <c r="P67" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O67">
+      <c r="Q67">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:17">
       <c r="A68">
         <v>2.2200000000000002</v>
       </c>
@@ -3186,20 +3230,20 @@
       <c r="J68">
         <v>2.27</v>
       </c>
-      <c r="L68">
-        <v>4.5</v>
-      </c>
-      <c r="M68" s="1">
+      <c r="N68">
+        <v>4.5</v>
+      </c>
+      <c r="O68" s="1">
         <v>9.6899999999999996E-7</v>
       </c>
-      <c r="N68" s="1">
+      <c r="P68" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O68">
+      <c r="Q68">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:17">
       <c r="A69">
         <v>2.2233333333299998</v>
       </c>
@@ -3227,20 +3271,20 @@
       <c r="J69">
         <v>2.27</v>
       </c>
-      <c r="L69">
-        <v>4.5</v>
-      </c>
-      <c r="M69" s="1">
+      <c r="N69">
+        <v>4.5</v>
+      </c>
+      <c r="O69" s="1">
         <v>9.6800000000000009E-7</v>
       </c>
-      <c r="N69" s="1">
+      <c r="P69" s="1">
         <v>2.0899999999999999E-6</v>
       </c>
-      <c r="O69">
+      <c r="Q69">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:17">
       <c r="A70">
         <v>2.2266666666699999</v>
       </c>
@@ -3268,20 +3312,20 @@
       <c r="J70">
         <v>2.27</v>
       </c>
-      <c r="L70">
-        <v>4.5</v>
-      </c>
-      <c r="M70" s="1">
+      <c r="N70">
+        <v>4.5</v>
+      </c>
+      <c r="O70" s="1">
         <v>9.5900000000000005E-7</v>
       </c>
-      <c r="N70" s="1">
+      <c r="P70" s="1">
         <v>2.0899999999999999E-6</v>
       </c>
-      <c r="O70">
+      <c r="Q70">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:17">
       <c r="A71">
         <v>2.23</v>
       </c>
@@ -3309,20 +3353,20 @@
       <c r="J71">
         <v>2.27</v>
       </c>
-      <c r="L71">
-        <v>4.5</v>
-      </c>
-      <c r="M71" s="1">
+      <c r="N71">
+        <v>4.5</v>
+      </c>
+      <c r="O71" s="1">
         <v>9.5499999999999996E-7</v>
       </c>
-      <c r="N71" s="1">
+      <c r="P71" s="1">
         <v>2.0899999999999999E-6</v>
       </c>
-      <c r="O71">
+      <c r="Q71">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:17">
       <c r="A72">
         <v>2.2333333333300001</v>
       </c>
@@ -3350,20 +3394,20 @@
       <c r="J72">
         <v>2.27</v>
       </c>
-      <c r="L72">
-        <v>4.5</v>
-      </c>
-      <c r="M72" s="1">
+      <c r="N72">
+        <v>4.5</v>
+      </c>
+      <c r="O72" s="1">
         <v>9.5300000000000002E-7</v>
       </c>
-      <c r="N72" s="1">
+      <c r="P72" s="1">
         <v>2.0899999999999999E-6</v>
       </c>
-      <c r="O72">
+      <c r="Q72">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:17">
       <c r="A73">
         <v>2.2366666666700001</v>
       </c>
@@ -3391,20 +3435,20 @@
       <c r="J73">
         <v>2.27</v>
       </c>
-      <c r="L73">
-        <v>4.5</v>
-      </c>
-      <c r="M73" s="1">
+      <c r="N73">
+        <v>4.5</v>
+      </c>
+      <c r="O73" s="1">
         <v>9.5000000000000001E-7</v>
       </c>
-      <c r="N73" s="1">
+      <c r="P73" s="1">
         <v>2.0899999999999999E-6</v>
       </c>
-      <c r="O73">
+      <c r="Q73">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:17">
       <c r="A74">
         <v>2.2400000000000002</v>
       </c>
@@ -3432,20 +3476,20 @@
       <c r="J74">
         <v>2.27</v>
       </c>
-      <c r="L74">
-        <v>4.5</v>
-      </c>
-      <c r="M74" s="1">
+      <c r="N74">
+        <v>4.5</v>
+      </c>
+      <c r="O74" s="1">
         <v>9.4900000000000004E-7</v>
       </c>
-      <c r="N74" s="1">
+      <c r="P74" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O74">
+      <c r="Q74">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:17">
       <c r="A75">
         <v>2.2433333333299998</v>
       </c>
@@ -3473,20 +3517,20 @@
       <c r="J75">
         <v>2.27</v>
       </c>
-      <c r="L75">
-        <v>4.5</v>
-      </c>
-      <c r="M75" s="1">
+      <c r="N75">
+        <v>4.5</v>
+      </c>
+      <c r="O75" s="1">
         <v>9.4200000000000004E-7</v>
       </c>
-      <c r="N75" s="1">
+      <c r="P75" s="1">
         <v>2.0899999999999999E-6</v>
       </c>
-      <c r="O75">
+      <c r="Q75">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:17">
       <c r="A76">
         <v>2.2466666666699999</v>
       </c>
@@ -3514,20 +3558,20 @@
       <c r="J76">
         <v>2.27</v>
       </c>
-      <c r="L76">
-        <v>4.5</v>
-      </c>
-      <c r="M76" s="1">
+      <c r="N76">
+        <v>4.5</v>
+      </c>
+      <c r="O76" s="1">
         <v>9.2999999999999999E-7</v>
       </c>
-      <c r="N76" s="1">
+      <c r="P76" s="1">
         <v>2.0899999999999999E-6</v>
       </c>
-      <c r="O76">
+      <c r="Q76">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:17">
       <c r="A77">
         <v>2.25</v>
       </c>
@@ -3555,20 +3599,20 @@
       <c r="J77">
         <v>2.27</v>
       </c>
-      <c r="L77">
-        <v>4.5</v>
-      </c>
-      <c r="M77" s="1">
+      <c r="N77">
+        <v>4.5</v>
+      </c>
+      <c r="O77" s="1">
         <v>9.2999999999999999E-7</v>
       </c>
-      <c r="N77" s="1">
+      <c r="P77" s="1">
         <v>2.0899999999999999E-6</v>
       </c>
-      <c r="O77">
+      <c r="Q77">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:17">
       <c r="A78">
         <v>2.2533333333300001</v>
       </c>
@@ -3596,20 +3640,20 @@
       <c r="J78">
         <v>2.27</v>
       </c>
-      <c r="L78">
-        <v>4.5</v>
-      </c>
-      <c r="M78" s="1">
+      <c r="N78">
+        <v>4.5</v>
+      </c>
+      <c r="O78" s="1">
         <v>9.2900000000000002E-7</v>
       </c>
-      <c r="N78" s="1">
+      <c r="P78" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O78">
+      <c r="Q78">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:17">
       <c r="A79">
         <v>2.2566666666700002</v>
       </c>
@@ -3637,20 +3681,20 @@
       <c r="J79">
         <v>2.27</v>
       </c>
-      <c r="L79">
-        <v>4.5</v>
-      </c>
-      <c r="M79" s="1">
+      <c r="N79">
+        <v>4.5</v>
+      </c>
+      <c r="O79" s="1">
         <v>9.1999999999999998E-7</v>
       </c>
-      <c r="N79" s="1">
+      <c r="P79" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O79">
+      <c r="Q79">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:17">
       <c r="A80">
         <v>2.2599999999999998</v>
       </c>
@@ -3678,20 +3722,20 @@
       <c r="J80">
         <v>2.27</v>
       </c>
-      <c r="L80">
-        <v>4.5</v>
-      </c>
-      <c r="M80" s="1">
+      <c r="N80">
+        <v>4.5</v>
+      </c>
+      <c r="O80" s="1">
         <v>9.16E-7</v>
       </c>
-      <c r="N80" s="1">
+      <c r="P80" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O80">
+      <c r="Q80">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:17">
       <c r="A81">
         <v>2.2633333333299999</v>
       </c>
@@ -3719,20 +3763,20 @@
       <c r="J81">
         <v>2.27</v>
       </c>
-      <c r="L81">
-        <v>4.5</v>
-      </c>
-      <c r="M81" s="1">
+      <c r="N81">
+        <v>4.5</v>
+      </c>
+      <c r="O81" s="1">
         <v>9.1500000000000003E-7</v>
       </c>
-      <c r="N81" s="1">
+      <c r="P81" s="1">
         <v>2.0899999999999999E-6</v>
       </c>
-      <c r="O81">
+      <c r="Q81">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:17">
       <c r="A82">
         <v>2.2666666666699999</v>
       </c>
@@ -3760,20 +3804,20 @@
       <c r="J82">
         <v>2.27</v>
       </c>
-      <c r="L82">
-        <v>4.5</v>
-      </c>
-      <c r="M82" s="1">
+      <c r="N82">
+        <v>4.5</v>
+      </c>
+      <c r="O82" s="1">
         <v>9.0400000000000005E-7</v>
       </c>
-      <c r="N82" s="1">
+      <c r="P82" s="1">
         <v>2.0899999999999999E-6</v>
       </c>
-      <c r="O82">
+      <c r="Q82">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:17">
       <c r="A83">
         <v>2.27</v>
       </c>
@@ -3801,20 +3845,20 @@
       <c r="J83">
         <v>2.27</v>
       </c>
-      <c r="L83">
-        <v>4.5</v>
-      </c>
-      <c r="M83" s="1">
+      <c r="N83">
+        <v>4.5</v>
+      </c>
+      <c r="O83" s="1">
         <v>9.0599999999999999E-7</v>
       </c>
-      <c r="N83" s="1">
+      <c r="P83" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O83">
+      <c r="Q83">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:17">
       <c r="A84">
         <v>2.2733333333300001</v>
       </c>
@@ -3842,20 +3886,20 @@
       <c r="J84">
         <v>2.27</v>
       </c>
-      <c r="L84">
-        <v>4.5</v>
-      </c>
-      <c r="M84" s="1">
+      <c r="N84">
+        <v>4.5</v>
+      </c>
+      <c r="O84" s="1">
         <v>8.9899999999999999E-7</v>
       </c>
-      <c r="N84" s="1">
+      <c r="P84" s="1">
         <v>2.0899999999999999E-6</v>
       </c>
-      <c r="O84">
+      <c r="Q84">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:17">
       <c r="A85">
         <v>2.2766666666700002</v>
       </c>
@@ -3883,20 +3927,20 @@
       <c r="J85">
         <v>2.27</v>
       </c>
-      <c r="L85">
-        <v>4.5</v>
-      </c>
-      <c r="M85" s="1">
+      <c r="N85">
+        <v>4.5</v>
+      </c>
+      <c r="O85" s="1">
         <v>8.9400000000000004E-7</v>
       </c>
-      <c r="N85" s="1">
+      <c r="P85" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O85">
+      <c r="Q85">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:17">
       <c r="A86">
         <v>2.2799999999999998</v>
       </c>
@@ -3924,20 +3968,20 @@
       <c r="J86">
         <v>2.27</v>
       </c>
-      <c r="L86">
-        <v>4.5</v>
-      </c>
-      <c r="M86" s="1">
+      <c r="N86">
+        <v>4.5</v>
+      </c>
+      <c r="O86" s="1">
         <v>8.9400000000000004E-7</v>
       </c>
-      <c r="N86" s="1">
+      <c r="P86" s="1">
         <v>2.0899999999999999E-6</v>
       </c>
-      <c r="O86">
+      <c r="Q86">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:17">
       <c r="A87">
         <v>2.2833333333299999</v>
       </c>
@@ -3965,20 +4009,20 @@
       <c r="J87">
         <v>2.27</v>
       </c>
-      <c r="L87">
-        <v>4.5</v>
-      </c>
-      <c r="M87" s="1">
+      <c r="N87">
+        <v>4.5</v>
+      </c>
+      <c r="O87" s="1">
         <v>8.8899999999999998E-7</v>
       </c>
-      <c r="N87" s="1">
+      <c r="P87" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O87">
+      <c r="Q87">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:17">
       <c r="A88">
         <v>2.28666666667</v>
       </c>
@@ -4006,20 +4050,20 @@
       <c r="J88">
         <v>2.27</v>
       </c>
-      <c r="L88">
-        <v>4.5</v>
-      </c>
-      <c r="M88" s="1">
+      <c r="N88">
+        <v>4.5</v>
+      </c>
+      <c r="O88" s="1">
         <v>8.7899999999999997E-7</v>
       </c>
-      <c r="N88" s="1">
+      <c r="P88" s="1">
         <v>2.0899999999999999E-6</v>
       </c>
-      <c r="O88">
+      <c r="Q88">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:17">
       <c r="A89">
         <v>2.29</v>
       </c>
@@ -4047,20 +4091,20 @@
       <c r="J89">
         <v>2.27</v>
       </c>
-      <c r="L89">
-        <v>4.5</v>
-      </c>
-      <c r="M89" s="1">
+      <c r="N89">
+        <v>4.5</v>
+      </c>
+      <c r="O89" s="1">
         <v>8.8199999999999998E-7</v>
       </c>
-      <c r="N89" s="1">
+      <c r="P89" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O89">
+      <c r="Q89">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:17">
       <c r="A90">
         <v>2.2933333333300001</v>
       </c>
@@ -4088,20 +4132,20 @@
       <c r="J90">
         <v>2.27</v>
       </c>
-      <c r="L90">
-        <v>4.5</v>
-      </c>
-      <c r="M90" s="1">
+      <c r="N90">
+        <v>4.5</v>
+      </c>
+      <c r="O90" s="1">
         <v>8.7700000000000003E-7</v>
       </c>
-      <c r="N90" s="1">
+      <c r="P90" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O90">
+      <c r="Q90">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:17">
       <c r="A91">
         <v>2.2966666666700002</v>
       </c>
@@ -4129,20 +4173,20 @@
       <c r="J91">
         <v>2.27</v>
       </c>
-      <c r="L91">
-        <v>4.5</v>
-      </c>
-      <c r="M91" s="1">
+      <c r="N91">
+        <v>4.5</v>
+      </c>
+      <c r="O91" s="1">
         <v>8.6899999999999996E-7</v>
       </c>
-      <c r="N91" s="1">
+      <c r="P91" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O91">
+      <c r="Q91">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:17">
       <c r="A92">
         <v>2.2999999999999998</v>
       </c>
@@ -4170,20 +4214,20 @@
       <c r="J92">
         <v>2.27</v>
       </c>
-      <c r="L92">
-        <v>4.5</v>
-      </c>
-      <c r="M92" s="1">
+      <c r="N92">
+        <v>4.5</v>
+      </c>
+      <c r="O92" s="1">
         <v>8.6899999999999996E-7</v>
       </c>
-      <c r="N92" s="1">
+      <c r="P92" s="1">
         <v>2.0899999999999999E-6</v>
       </c>
-      <c r="O92">
+      <c r="Q92">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:17">
       <c r="A93">
         <v>2.3033333333299999</v>
       </c>
@@ -4211,20 +4255,20 @@
       <c r="J93">
         <v>2.27</v>
       </c>
-      <c r="L93">
-        <v>4.5</v>
-      </c>
-      <c r="M93" s="1">
+      <c r="N93">
+        <v>4.5</v>
+      </c>
+      <c r="O93" s="1">
         <v>8.6499999999999998E-7</v>
       </c>
-      <c r="N93" s="1">
+      <c r="P93" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O93">
+      <c r="Q93">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:17">
       <c r="A94">
         <v>2.30666666667</v>
       </c>
@@ -4252,20 +4296,20 @@
       <c r="J94">
         <v>2.27</v>
       </c>
-      <c r="L94">
-        <v>4.5</v>
-      </c>
-      <c r="M94" s="1">
+      <c r="N94">
+        <v>4.5</v>
+      </c>
+      <c r="O94" s="1">
         <v>8.5899999999999995E-7</v>
       </c>
-      <c r="N94" s="1">
+      <c r="P94" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O94">
+      <c r="Q94">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:17">
       <c r="A95">
         <v>2.31</v>
       </c>
@@ -4293,20 +4337,20 @@
       <c r="J95">
         <v>2.27</v>
       </c>
-      <c r="L95">
-        <v>4.5</v>
-      </c>
-      <c r="M95" s="1">
+      <c r="N95">
+        <v>4.5</v>
+      </c>
+      <c r="O95" s="1">
         <v>8.5700000000000001E-7</v>
       </c>
-      <c r="N95" s="1">
+      <c r="P95" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O95">
+      <c r="Q95">
         <v>3.0960000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:17">
       <c r="A96">
         <v>2.3133333333300001</v>
       </c>
@@ -4334,20 +4378,20 @@
       <c r="J96">
         <v>2.27</v>
       </c>
-      <c r="L96">
-        <v>4.5</v>
-      </c>
-      <c r="M96" s="1">
+      <c r="N96">
+        <v>4.5</v>
+      </c>
+      <c r="O96" s="1">
         <v>8.5099999999999998E-7</v>
       </c>
-      <c r="N96" s="1">
+      <c r="P96" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O96">
+      <c r="Q96">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:17">
       <c r="A97">
         <v>2.3166666666700002</v>
       </c>
@@ -4375,20 +4419,20 @@
       <c r="J97">
         <v>2.27</v>
       </c>
-      <c r="L97">
-        <v>4.5</v>
-      </c>
-      <c r="M97" s="1">
+      <c r="N97">
+        <v>4.5</v>
+      </c>
+      <c r="O97" s="1">
         <v>8.4399999999999999E-7</v>
       </c>
-      <c r="N97" s="1">
+      <c r="P97" s="1">
         <v>2.0700000000000001E-6</v>
       </c>
-      <c r="O97">
+      <c r="Q97">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:17">
       <c r="A98">
         <v>2.3199999999999998</v>
       </c>
@@ -4416,20 +4460,20 @@
       <c r="J98">
         <v>2.27</v>
       </c>
-      <c r="L98">
-        <v>4.5</v>
-      </c>
-      <c r="M98" s="1">
+      <c r="N98">
+        <v>4.5</v>
+      </c>
+      <c r="O98" s="1">
         <v>8.4600000000000003E-7</v>
       </c>
-      <c r="N98" s="1">
+      <c r="P98" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O98">
+      <c r="Q98">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:17">
       <c r="A99">
         <v>2.3233333333299999</v>
       </c>
@@ -4457,20 +4501,20 @@
       <c r="J99">
         <v>2.27</v>
       </c>
-      <c r="L99">
-        <v>4.5</v>
-      </c>
-      <c r="M99" s="1">
+      <c r="N99">
+        <v>4.5</v>
+      </c>
+      <c r="O99" s="1">
         <v>8.4200000000000005E-7</v>
       </c>
-      <c r="N99" s="1">
+      <c r="P99" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O99">
+      <c r="Q99">
         <v>3.0960000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:17">
       <c r="A100">
         <v>2.32666666667</v>
       </c>
@@ -4498,20 +4542,20 @@
       <c r="J100">
         <v>2.27</v>
       </c>
-      <c r="L100">
-        <v>4.5</v>
-      </c>
-      <c r="M100" s="1">
+      <c r="N100">
+        <v>4.5</v>
+      </c>
+      <c r="O100" s="1">
         <v>8.4300000000000002E-7</v>
       </c>
-      <c r="N100" s="1">
+      <c r="P100" s="1">
         <v>2.0700000000000001E-6</v>
       </c>
-      <c r="O100">
+      <c r="Q100">
         <v>3.0960000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:17">
       <c r="A101">
         <v>2.33</v>
       </c>
@@ -4539,20 +4583,20 @@
       <c r="J101">
         <v>2.27</v>
       </c>
-      <c r="L101">
-        <v>4.5</v>
-      </c>
-      <c r="M101" s="1">
+      <c r="N101">
+        <v>4.5</v>
+      </c>
+      <c r="O101" s="1">
         <v>8.3600000000000002E-7</v>
       </c>
-      <c r="N101" s="1">
+      <c r="P101" s="1">
         <v>2.0700000000000001E-6</v>
       </c>
-      <c r="O101">
+      <c r="Q101">
         <v>3.0960000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:17">
       <c r="A102">
         <v>2.3333333333300001</v>
       </c>
@@ -4580,20 +4624,20 @@
       <c r="J102">
         <v>2.27</v>
       </c>
-      <c r="L102">
-        <v>4.5</v>
-      </c>
-      <c r="M102" s="1">
+      <c r="N102">
+        <v>4.5</v>
+      </c>
+      <c r="O102" s="1">
         <v>8.3300000000000001E-7</v>
       </c>
-      <c r="N102" s="1">
+      <c r="P102" s="1">
         <v>2.08E-6</v>
       </c>
-      <c r="O102">
+      <c r="Q102">
         <v>3.0960000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:17">
       <c r="A103">
         <v>2.3366666666699998</v>
       </c>
@@ -4621,20 +4665,20 @@
       <c r="J103">
         <v>2.27</v>
       </c>
-      <c r="L103">
-        <v>4.5</v>
-      </c>
-      <c r="M103" s="1">
+      <c r="N103">
+        <v>4.5</v>
+      </c>
+      <c r="O103" s="1">
         <v>8.3699999999999999E-7</v>
       </c>
-      <c r="N103" s="1">
+      <c r="P103" s="1">
         <v>2.0700000000000001E-6</v>
       </c>
-      <c r="O103">
+      <c r="Q103">
         <v>3.0960000000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:17">
       <c r="A104">
         <v>2.34</v>
       </c>
@@ -4662,20 +4706,20 @@
       <c r="J104">
         <v>2.27</v>
       </c>
-      <c r="L104">
-        <v>4.5</v>
-      </c>
-      <c r="M104" s="1">
+      <c r="N104">
+        <v>4.5</v>
+      </c>
+      <c r="O104" s="1">
         <v>8.2500000000000004E-7</v>
       </c>
-      <c r="N104" s="1">
+      <c r="P104" s="1">
         <v>2.0600000000000002E-6</v>
       </c>
-      <c r="O104">
+      <c r="Q104">
         <v>3.0960000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:17">
       <c r="A105">
         <v>2.3433333333299999</v>
       </c>
@@ -4703,20 +4747,20 @@
       <c r="J105">
         <v>2.27</v>
       </c>
-      <c r="L105">
-        <v>4.5</v>
-      </c>
-      <c r="M105" s="1">
+      <c r="N105">
+        <v>4.5</v>
+      </c>
+      <c r="O105" s="1">
         <v>8.3600000000000002E-7</v>
       </c>
-      <c r="N105" s="1">
+      <c r="P105" s="1">
         <v>2.0600000000000002E-6</v>
       </c>
-      <c r="O105">
+      <c r="Q105">
         <v>3.0960000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:17">
       <c r="A106">
         <v>2.34666666667</v>
       </c>
@@ -4744,20 +4788,20 @@
       <c r="J106">
         <v>2.27</v>
       </c>
-      <c r="L106">
-        <v>4.5</v>
-      </c>
-      <c r="M106" s="1">
+      <c r="N106">
+        <v>4.5</v>
+      </c>
+      <c r="O106" s="1">
         <v>8.2900000000000002E-7</v>
       </c>
-      <c r="N106" s="1">
+      <c r="P106" s="1">
         <v>2.0600000000000002E-6</v>
       </c>
-      <c r="O106">
+      <c r="Q106">
         <v>3.0960000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:17">
       <c r="A107">
         <v>2.35</v>
       </c>
@@ -4785,20 +4829,20 @@
       <c r="J107">
         <v>2.27</v>
       </c>
-      <c r="L107">
-        <v>4.5</v>
-      </c>
-      <c r="M107" s="1">
+      <c r="N107">
+        <v>4.5</v>
+      </c>
+      <c r="O107" s="1">
         <v>8.16E-7</v>
       </c>
-      <c r="N107" s="1">
+      <c r="P107" s="1">
         <v>2.0600000000000002E-6</v>
       </c>
-      <c r="O107">
+      <c r="Q107">
         <v>3.0960000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:17">
       <c r="A108">
         <v>2.3533333333300002</v>
       </c>
@@ -4826,20 +4870,20 @@
       <c r="J108">
         <v>2.27</v>
       </c>
-      <c r="L108">
-        <v>4.5</v>
-      </c>
-      <c r="M108" s="1">
+      <c r="N108">
+        <v>4.5</v>
+      </c>
+      <c r="O108" s="1">
         <v>8.16E-7</v>
       </c>
-      <c r="N108" s="1">
+      <c r="P108" s="1">
         <v>2.0499999999999999E-6</v>
       </c>
-      <c r="O108">
+      <c r="Q108">
         <v>3.0960000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:17">
       <c r="A109">
         <v>2.3566666666699998</v>
       </c>
@@ -4867,20 +4911,20 @@
       <c r="J109">
         <v>2.27</v>
       </c>
-      <c r="L109">
-        <v>4.5</v>
-      </c>
-      <c r="M109" s="1">
+      <c r="N109">
+        <v>4.5</v>
+      </c>
+      <c r="O109" s="1">
         <v>8.2699999999999998E-7</v>
       </c>
-      <c r="N109" s="1">
+      <c r="P109" s="1">
         <v>2.04E-6</v>
       </c>
-      <c r="O109">
+      <c r="Q109">
         <v>3.0960000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:17">
       <c r="A110">
         <v>2.36</v>
       </c>
@@ -4908,20 +4952,20 @@
       <c r="J110">
         <v>2.27</v>
       </c>
-      <c r="L110">
-        <v>4.5</v>
-      </c>
-      <c r="M110" s="1">
+      <c r="N110">
+        <v>4.5</v>
+      </c>
+      <c r="O110" s="1">
         <v>8.2600000000000001E-7</v>
       </c>
-      <c r="N110" s="1">
+      <c r="P110" s="1">
         <v>2.0499999999999999E-6</v>
       </c>
-      <c r="O110">
+      <c r="Q110">
         <v>3.0960000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:17">
       <c r="A111">
         <v>2.36333333333</v>
       </c>
@@ -4949,20 +4993,20 @@
       <c r="J111">
         <v>2.27</v>
       </c>
-      <c r="L111">
-        <v>4.5</v>
-      </c>
-      <c r="M111" s="1">
+      <c r="N111">
+        <v>4.5</v>
+      </c>
+      <c r="O111" s="1">
         <v>8.2600000000000001E-7</v>
       </c>
-      <c r="N111" s="1">
+      <c r="P111" s="1">
         <v>2.0499999999999999E-6</v>
       </c>
-      <c r="O111">
+      <c r="Q111">
         <v>3.0960000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:17">
       <c r="A112">
         <v>2.36666666667</v>
       </c>
@@ -4990,20 +5034,20 @@
       <c r="J112">
         <v>2.27</v>
       </c>
-      <c r="L112">
-        <v>4.5</v>
-      </c>
-      <c r="M112" s="1">
+      <c r="N112">
+        <v>4.5</v>
+      </c>
+      <c r="O112" s="1">
         <v>8.2600000000000001E-7</v>
       </c>
-      <c r="N112" s="1">
+      <c r="P112" s="1">
         <v>2.0200000000000001E-6</v>
       </c>
-      <c r="O112">
+      <c r="Q112">
         <v>3.0960000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:17">
       <c r="A113">
         <v>2.37</v>
       </c>
@@ -5031,20 +5075,20 @@
       <c r="J113">
         <v>2.27</v>
       </c>
-      <c r="L113">
-        <v>4.5</v>
-      </c>
-      <c r="M113" s="1">
+      <c r="N113">
+        <v>4.5</v>
+      </c>
+      <c r="O113" s="1">
         <v>8.2600000000000001E-7</v>
       </c>
-      <c r="N113" s="1">
+      <c r="P113" s="1">
         <v>2.03E-6</v>
       </c>
-      <c r="O113">
+      <c r="Q113">
         <v>3.0960000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:17">
       <c r="A114">
         <v>2.3733333333300002</v>
       </c>
@@ -5072,20 +5116,20 @@
       <c r="J114">
         <v>2.2719999999999998</v>
       </c>
-      <c r="L114">
-        <v>4.5</v>
-      </c>
-      <c r="M114" s="1">
+      <c r="N114">
+        <v>4.5</v>
+      </c>
+      <c r="O114" s="1">
         <v>8.3399999999999998E-7</v>
       </c>
-      <c r="N114" s="1">
+      <c r="P114" s="1">
         <v>2.03E-6</v>
       </c>
-      <c r="O114">
+      <c r="Q114">
         <v>3.0960000000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:17">
       <c r="A115">
         <v>2.3766666666699998</v>
       </c>
@@ -5113,20 +5157,20 @@
       <c r="J115">
         <v>2.2719999999999998</v>
       </c>
-      <c r="L115">
-        <v>4.5</v>
-      </c>
-      <c r="M115" s="1">
+      <c r="N115">
+        <v>4.5</v>
+      </c>
+      <c r="O115" s="1">
         <v>8.2600000000000001E-7</v>
       </c>
-      <c r="N115" s="1">
+      <c r="P115" s="1">
         <v>2.0099999999999998E-6</v>
       </c>
-      <c r="O115">
+      <c r="Q115">
         <v>3.0960000000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:17">
       <c r="A116">
         <v>2.38</v>
       </c>
@@ -5154,20 +5198,20 @@
       <c r="J116">
         <v>2.2719999999999998</v>
       </c>
-      <c r="L116">
-        <v>4.5</v>
-      </c>
-      <c r="M116" s="1">
+      <c r="N116">
+        <v>4.5</v>
+      </c>
+      <c r="O116" s="1">
         <v>8.2999999999999999E-7</v>
       </c>
-      <c r="N116" s="1">
+      <c r="P116" s="1">
         <v>2.0099999999999998E-6</v>
       </c>
-      <c r="O116">
+      <c r="Q116">
         <v>3.0960000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:17">
       <c r="A117">
         <v>2.38333333333</v>
       </c>
@@ -5195,20 +5239,20 @@
       <c r="J117">
         <v>2.2719999999999998</v>
       </c>
-      <c r="L117">
-        <v>4.5</v>
-      </c>
-      <c r="M117" s="1">
+      <c r="N117">
+        <v>4.5</v>
+      </c>
+      <c r="O117" s="1">
         <v>8.3600000000000002E-7</v>
       </c>
-      <c r="N117" s="1">
+      <c r="P117" s="1">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="O117">
+      <c r="Q117">
         <v>3.0960000000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:17">
       <c r="A118">
         <v>2.38666666667</v>
       </c>
@@ -5236,20 +5280,20 @@
       <c r="J118">
         <v>2.2719999999999998</v>
       </c>
-      <c r="L118">
-        <v>4.5</v>
-      </c>
-      <c r="M118" s="1">
+      <c r="N118">
+        <v>4.5</v>
+      </c>
+      <c r="O118" s="1">
         <v>8.4900000000000005E-7</v>
       </c>
-      <c r="N118" s="1">
+      <c r="P118" s="1">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="O118">
+      <c r="Q118">
         <v>3.0979999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:17">
       <c r="A119">
         <v>2.39</v>
       </c>
@@ -5277,20 +5321,20 @@
       <c r="J119">
         <v>2.2719999999999998</v>
       </c>
-      <c r="L119">
-        <v>4.5</v>
-      </c>
-      <c r="M119" s="1">
+      <c r="N119">
+        <v>4.5</v>
+      </c>
+      <c r="O119" s="1">
         <v>8.4399999999999999E-7</v>
       </c>
-      <c r="N119" s="1">
+      <c r="P119" s="1">
         <v>1.9800000000000001E-6</v>
       </c>
-      <c r="O119">
+      <c r="Q119">
         <v>3.0979999999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:17">
       <c r="A120">
         <v>2.3933333333300002</v>
       </c>
@@ -5318,20 +5362,20 @@
       <c r="J120">
         <v>2.2719999999999998</v>
       </c>
-      <c r="L120">
-        <v>4.5</v>
-      </c>
-      <c r="M120" s="1">
+      <c r="N120">
+        <v>4.5</v>
+      </c>
+      <c r="O120" s="1">
         <v>8.4900000000000005E-7</v>
       </c>
-      <c r="N120" s="1">
+      <c r="P120" s="1">
         <v>1.9800000000000001E-6</v>
       </c>
-      <c r="O120">
+      <c r="Q120">
         <v>3.0979999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:17">
       <c r="A121">
         <v>2.3966666666699998</v>
       </c>
@@ -5359,20 +5403,20 @@
       <c r="J121">
         <v>2.2719999999999998</v>
       </c>
-      <c r="L121">
-        <v>4.5</v>
-      </c>
-      <c r="M121" s="1">
+      <c r="N121">
+        <v>4.5</v>
+      </c>
+      <c r="O121" s="1">
         <v>8.6199999999999996E-7</v>
       </c>
-      <c r="N121" s="1">
+      <c r="P121" s="1">
         <v>1.9599999999999999E-6</v>
       </c>
-      <c r="O121">
+      <c r="Q121">
         <v>3.0979999999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:17">
       <c r="A122">
         <v>2.4</v>
       </c>
@@ -5400,20 +5444,20 @@
       <c r="J122">
         <v>2.2719999999999998</v>
       </c>
-      <c r="L122">
-        <v>4.5</v>
-      </c>
-      <c r="M122" s="1">
+      <c r="N122">
+        <v>4.5</v>
+      </c>
+      <c r="O122" s="1">
         <v>8.6799999999999999E-7</v>
       </c>
-      <c r="N122" s="1">
+      <c r="P122" s="1">
         <v>1.95E-6</v>
       </c>
-      <c r="O122">
+      <c r="Q122">
         <v>3.0979999999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:15">
+    <row r="123" spans="1:17">
       <c r="A123">
         <v>2.40333333333</v>
       </c>
@@ -5441,20 +5485,20 @@
       <c r="J123">
         <v>2.2719999999999998</v>
       </c>
-      <c r="L123">
-        <v>4.5</v>
-      </c>
-      <c r="M123" s="1">
+      <c r="N123">
+        <v>4.5</v>
+      </c>
+      <c r="O123" s="1">
         <v>8.71E-7</v>
       </c>
-      <c r="N123" s="1">
+      <c r="P123" s="1">
         <v>1.95E-6</v>
       </c>
-      <c r="O123">
+      <c r="Q123">
         <v>3.0979999999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:15">
+    <row r="124" spans="1:17">
       <c r="A124">
         <v>2.4066666666700001</v>
       </c>
@@ -5482,20 +5526,20 @@
       <c r="J124">
         <v>2.2719999999999998</v>
       </c>
-      <c r="L124">
-        <v>4.5</v>
-      </c>
-      <c r="M124" s="1">
+      <c r="N124">
+        <v>4.5</v>
+      </c>
+      <c r="O124" s="1">
         <v>8.85E-7</v>
       </c>
-      <c r="N124" s="1">
+      <c r="P124" s="1">
         <v>1.9199999999999998E-6</v>
       </c>
-      <c r="O124">
+      <c r="Q124">
         <v>3.0979999999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:17">
       <c r="A125">
         <v>2.41</v>
       </c>
@@ -5523,20 +5567,20 @@
       <c r="J125">
         <v>2.2719999999999998</v>
       </c>
-      <c r="L125">
-        <v>4.5</v>
-      </c>
-      <c r="M125" s="1">
+      <c r="N125">
+        <v>4.5</v>
+      </c>
+      <c r="O125" s="1">
         <v>8.9299999999999996E-7</v>
       </c>
-      <c r="N125" s="1">
+      <c r="P125" s="1">
         <v>1.9E-6</v>
       </c>
-      <c r="O125">
+      <c r="Q125">
         <v>3.1</v>
       </c>
     </row>
-    <row r="126" spans="1:15">
+    <row r="126" spans="1:17">
       <c r="A126">
         <v>2.4133333333300002</v>
       </c>
@@ -5564,20 +5608,20 @@
       <c r="J126">
         <v>2.2719999999999998</v>
       </c>
-      <c r="L126">
-        <v>4.5</v>
-      </c>
-      <c r="M126" s="1">
+      <c r="N126">
+        <v>4.5</v>
+      </c>
+      <c r="O126" s="1">
         <v>9.0100000000000003E-7</v>
       </c>
-      <c r="N126" s="1">
+      <c r="P126" s="1">
         <v>1.8899999999999999E-6</v>
       </c>
-      <c r="O126">
+      <c r="Q126">
         <v>3.1</v>
       </c>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:17">
       <c r="A127">
         <v>2.4166666666699999</v>
       </c>
@@ -5605,20 +5649,20 @@
       <c r="J127">
         <v>2.2719999999999998</v>
       </c>
-      <c r="L127">
-        <v>4.5</v>
-      </c>
-      <c r="M127" s="1">
+      <c r="N127">
+        <v>4.5</v>
+      </c>
+      <c r="O127" s="1">
         <v>9.2600000000000001E-7</v>
       </c>
-      <c r="N127" s="1">
+      <c r="P127" s="1">
         <v>1.8700000000000001E-6</v>
       </c>
-      <c r="O127">
+      <c r="Q127">
         <v>3.1</v>
       </c>
     </row>
-    <row r="128" spans="1:15">
+    <row r="128" spans="1:17">
       <c r="A128">
         <v>2.42</v>
       </c>
@@ -5646,20 +5690,20 @@
       <c r="J128">
         <v>2.2719999999999998</v>
       </c>
-      <c r="L128">
-        <v>4.5</v>
-      </c>
-      <c r="M128" s="1">
+      <c r="N128">
+        <v>4.5</v>
+      </c>
+      <c r="O128" s="1">
         <v>9.2699999999999998E-7</v>
       </c>
-      <c r="N128" s="1">
+      <c r="P128" s="1">
         <v>1.8700000000000001E-6</v>
       </c>
-      <c r="O128">
+      <c r="Q128">
         <v>3.1</v>
       </c>
     </row>
-    <row r="129" spans="1:15">
+    <row r="129" spans="1:17">
       <c r="A129">
         <v>2.42333333333</v>
       </c>
@@ -5687,20 +5731,20 @@
       <c r="J129">
         <v>2.2719999999999998</v>
       </c>
-      <c r="L129">
-        <v>4.5</v>
-      </c>
-      <c r="M129" s="1">
+      <c r="N129">
+        <v>4.5</v>
+      </c>
+      <c r="O129" s="1">
         <v>9.47E-7</v>
       </c>
-      <c r="N129" s="1">
+      <c r="P129" s="1">
         <v>1.84E-6</v>
       </c>
-      <c r="O129">
+      <c r="Q129">
         <v>3.1</v>
       </c>
     </row>
-    <row r="130" spans="1:15">
+    <row r="130" spans="1:17">
       <c r="A130">
         <v>2.4266666666700001</v>
       </c>
@@ -5728,20 +5772,20 @@
       <c r="J130">
         <v>2.274</v>
       </c>
-      <c r="L130">
-        <v>4.5</v>
-      </c>
-      <c r="M130" s="1">
+      <c r="N130">
+        <v>4.5</v>
+      </c>
+      <c r="O130" s="1">
         <v>9.7000000000000003E-7</v>
       </c>
-      <c r="N130" s="1">
+      <c r="P130" s="1">
         <v>1.8300000000000001E-6</v>
       </c>
-      <c r="O130">
+      <c r="Q130">
         <v>3.1019999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:15">
+    <row r="131" spans="1:17">
       <c r="A131">
         <v>2.4300000000000002</v>
       </c>
@@ -5769,20 +5813,20 @@
       <c r="J131">
         <v>2.274</v>
       </c>
-      <c r="L131">
-        <v>4.5</v>
-      </c>
-      <c r="M131" s="1">
+      <c r="N131">
+        <v>4.5</v>
+      </c>
+      <c r="O131" s="1">
         <v>9.7999999999999993E-7</v>
       </c>
-      <c r="N131" s="1">
+      <c r="P131" s="1">
         <v>1.7999999999999999E-6</v>
       </c>
-      <c r="O131">
+      <c r="Q131">
         <v>3.1019999999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:15">
+    <row r="132" spans="1:17">
       <c r="A132">
         <v>2.4333333333299998</v>
       </c>
@@ -5810,20 +5854,20 @@
       <c r="J132">
         <v>2.274</v>
       </c>
-      <c r="L132">
-        <v>4.5</v>
-      </c>
-      <c r="M132" s="1">
+      <c r="N132">
+        <v>4.5</v>
+      </c>
+      <c r="O132" s="1">
         <v>9.9900000000000009E-7</v>
       </c>
-      <c r="N132" s="1">
+      <c r="P132" s="1">
         <v>1.7799999999999999E-6</v>
       </c>
-      <c r="O132">
+      <c r="Q132">
         <v>3.1019999999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:15">
+    <row r="133" spans="1:17">
       <c r="A133">
         <v>2.4366666666699999</v>
       </c>
@@ -5851,20 +5895,20 @@
       <c r="J133">
         <v>2.274</v>
       </c>
-      <c r="L133">
-        <v>4.5</v>
-      </c>
-      <c r="M133" s="1">
+      <c r="N133">
+        <v>4.5</v>
+      </c>
+      <c r="O133" s="1">
         <v>1.0279999999999999E-6</v>
       </c>
-      <c r="N133" s="1">
+      <c r="P133" s="1">
         <v>1.7400000000000001E-6</v>
       </c>
-      <c r="O133">
+      <c r="Q133">
         <v>3.1040000000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:15">
+    <row r="134" spans="1:17">
       <c r="A134">
         <v>2.44</v>
       </c>
@@ -5892,20 +5936,20 @@
       <c r="J134">
         <v>2.274</v>
       </c>
-      <c r="L134">
-        <v>4.5</v>
-      </c>
-      <c r="M134" s="1">
+      <c r="N134">
+        <v>4.5</v>
+      </c>
+      <c r="O134" s="1">
         <v>1.046E-6</v>
       </c>
-      <c r="N134" s="1">
+      <c r="P134" s="1">
         <v>1.72E-6</v>
       </c>
-      <c r="O134">
+      <c r="Q134">
         <v>3.1040000000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:15">
+    <row r="135" spans="1:17">
       <c r="A135">
         <v>2.44333333333</v>
       </c>
@@ -5933,20 +5977,20 @@
       <c r="J135">
         <v>2.274</v>
       </c>
-      <c r="L135">
-        <v>4.5</v>
-      </c>
-      <c r="M135" s="1">
+      <c r="N135">
+        <v>4.5</v>
+      </c>
+      <c r="O135" s="1">
         <v>1.0580000000000001E-6</v>
       </c>
-      <c r="N135" s="1">
+      <c r="P135" s="1">
         <v>1.7E-6</v>
       </c>
-      <c r="O135">
+      <c r="Q135">
         <v>3.1040000000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:15">
+    <row r="136" spans="1:17">
       <c r="A136">
         <v>2.4466666666700001</v>
       </c>
@@ -5974,20 +6018,20 @@
       <c r="J136">
         <v>2.274</v>
       </c>
-      <c r="L136">
-        <v>4.5</v>
-      </c>
-      <c r="M136" s="1">
+      <c r="N136">
+        <v>4.5</v>
+      </c>
+      <c r="O136" s="1">
         <v>1.093E-6</v>
       </c>
-      <c r="N136" s="1">
+      <c r="P136" s="1">
         <v>1.66E-6</v>
       </c>
-      <c r="O136">
+      <c r="Q136">
         <v>3.1059999999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:17">
       <c r="A137">
         <v>2.4500000000000002</v>
       </c>
@@ -6015,20 +6059,20 @@
       <c r="J137">
         <v>2.2759999999999998</v>
       </c>
-      <c r="L137">
-        <v>4.5</v>
-      </c>
-      <c r="M137" s="1">
+      <c r="N137">
+        <v>4.5</v>
+      </c>
+      <c r="O137" s="1">
         <v>1.119E-6</v>
       </c>
-      <c r="N137" s="1">
+      <c r="P137" s="1">
         <v>1.64E-6</v>
       </c>
-      <c r="O137">
+      <c r="Q137">
         <v>3.1059999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:15">
+    <row r="138" spans="1:17">
       <c r="A138">
         <v>2.4533333333299998</v>
       </c>
@@ -6056,20 +6100,20 @@
       <c r="J138">
         <v>2.2759999999999998</v>
       </c>
-      <c r="L138">
-        <v>4.5</v>
-      </c>
-      <c r="M138" s="1">
+      <c r="N138">
+        <v>4.5</v>
+      </c>
+      <c r="O138" s="1">
         <v>1.1349999999999999E-6</v>
       </c>
-      <c r="N138" s="1">
+      <c r="P138" s="1">
         <v>1.61E-6</v>
       </c>
-      <c r="O138">
+      <c r="Q138">
         <v>3.1059999999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:15">
+    <row r="139" spans="1:17">
       <c r="A139">
         <v>2.4566666666699999</v>
       </c>
@@ -6097,20 +6141,20 @@
       <c r="J139">
         <v>2.2759999999999998</v>
       </c>
-      <c r="L139">
-        <v>4.5</v>
-      </c>
-      <c r="M139" s="1">
+      <c r="N139">
+        <v>4.5</v>
+      </c>
+      <c r="O139" s="1">
         <v>1.1739999999999999E-6</v>
       </c>
-      <c r="N139" s="1">
+      <c r="P139" s="1">
         <v>1.57E-6</v>
       </c>
-      <c r="O139">
+      <c r="Q139">
         <v>3.1080000000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:15">
+    <row r="140" spans="1:17">
       <c r="A140">
         <v>2.46</v>
       </c>
@@ -6138,20 +6182,20 @@
       <c r="J140">
         <v>2.2759999999999998</v>
       </c>
-      <c r="L140">
-        <v>4.5</v>
-      </c>
-      <c r="M140" s="1">
+      <c r="N140">
+        <v>4.5</v>
+      </c>
+      <c r="O140" s="1">
         <v>1.1960000000000001E-6</v>
       </c>
-      <c r="N140" s="1">
+      <c r="P140" s="1">
         <v>1.55E-6</v>
       </c>
-      <c r="O140">
+      <c r="Q140">
         <v>3.1080000000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:15">
+    <row r="141" spans="1:17">
       <c r="A141">
         <v>2.46333333333</v>
       </c>
@@ -6179,20 +6223,20 @@
       <c r="J141">
         <v>2.278</v>
       </c>
-      <c r="L141">
-        <v>4.5</v>
-      </c>
-      <c r="M141" s="1">
+      <c r="N141">
+        <v>4.5</v>
+      </c>
+      <c r="O141" s="1">
         <v>1.218E-6</v>
       </c>
-      <c r="N141" s="1">
+      <c r="P141" s="1">
         <v>1.53E-6</v>
       </c>
-      <c r="O141">
+      <c r="Q141">
         <v>3.11</v>
       </c>
     </row>
-    <row r="142" spans="1:15">
+    <row r="142" spans="1:17">
       <c r="A142">
         <v>2.4666666666700001</v>
       </c>
@@ -6220,20 +6264,20 @@
       <c r="J142">
         <v>2.278</v>
       </c>
-      <c r="L142">
-        <v>4.5</v>
-      </c>
-      <c r="M142" s="1">
+      <c r="N142">
+        <v>4.5</v>
+      </c>
+      <c r="O142" s="1">
         <v>1.2619999999999999E-6</v>
       </c>
-      <c r="N142" s="1">
+      <c r="P142" s="1">
         <v>1.4699999999999999E-6</v>
       </c>
-      <c r="O142">
+      <c r="Q142">
         <v>3.11</v>
       </c>
     </row>
-    <row r="143" spans="1:15">
+    <row r="143" spans="1:17">
       <c r="A143">
         <v>2.4700000000000002</v>
       </c>
@@ -6261,20 +6305,20 @@
       <c r="J143">
         <v>2.278</v>
       </c>
-      <c r="L143">
-        <v>4.5</v>
-      </c>
-      <c r="M143" s="1">
+      <c r="N143">
+        <v>4.5</v>
+      </c>
+      <c r="O143" s="1">
         <v>1.283E-6</v>
       </c>
-      <c r="N143" s="1">
+      <c r="P143" s="1">
         <v>1.4500000000000001E-6</v>
       </c>
-      <c r="O143">
+      <c r="Q143">
         <v>3.1120000000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:15">
+    <row r="144" spans="1:17">
       <c r="A144">
         <v>2.4733333333299998</v>
       </c>
@@ -6302,20 +6346,20 @@
       <c r="J144">
         <v>2.278</v>
       </c>
-      <c r="L144">
-        <v>4.5</v>
-      </c>
-      <c r="M144" s="1">
+      <c r="N144">
+        <v>4.5</v>
+      </c>
+      <c r="O144" s="1">
         <v>1.308E-6</v>
       </c>
-      <c r="N144" s="1">
+      <c r="P144" s="1">
         <v>1.42E-6</v>
       </c>
-      <c r="O144">
+      <c r="Q144">
         <v>3.1120000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:17">
       <c r="A145">
         <v>2.4766666666699999</v>
       </c>
@@ -6343,20 +6387,20 @@
       <c r="J145">
         <v>2.2799999999999998</v>
       </c>
-      <c r="L145">
-        <v>4.5</v>
-      </c>
-      <c r="M145" s="1">
+      <c r="N145">
+        <v>4.5</v>
+      </c>
+      <c r="O145" s="1">
         <v>1.3629999999999999E-6</v>
       </c>
-      <c r="N145" s="1">
+      <c r="P145" s="1">
         <v>1.37E-6</v>
       </c>
-      <c r="O145">
+      <c r="Q145">
         <v>3.1139999999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:15">
+    <row r="146" spans="1:17">
       <c r="A146">
         <v>2.48</v>
       </c>
@@ -6384,20 +6428,20 @@
       <c r="J146">
         <v>2.2799999999999998</v>
       </c>
-      <c r="L146">
-        <v>4.5</v>
-      </c>
-      <c r="M146" s="1">
+      <c r="N146">
+        <v>4.5</v>
+      </c>
+      <c r="O146" s="1">
         <v>1.3799999999999999E-6</v>
       </c>
-      <c r="N146" s="1">
+      <c r="P146" s="1">
         <v>1.3400000000000001E-6</v>
       </c>
-      <c r="O146">
+      <c r="Q146">
         <v>3.1160000000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:15">
+    <row r="147" spans="1:17">
       <c r="A147">
         <v>2.4833333333300001</v>
       </c>
@@ -6425,20 +6469,20 @@
       <c r="J147">
         <v>2.282</v>
       </c>
-      <c r="L147">
-        <v>4.5</v>
-      </c>
-      <c r="M147" s="1">
+      <c r="N147">
+        <v>4.5</v>
+      </c>
+      <c r="O147" s="1">
         <v>1.4050000000000001E-6</v>
       </c>
-      <c r="N147" s="1">
+      <c r="P147" s="1">
         <v>1.31E-6</v>
       </c>
-      <c r="O147">
+      <c r="Q147">
         <v>3.1160000000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:15">
+    <row r="148" spans="1:17">
       <c r="A148">
         <v>2.4866666666700001</v>
       </c>
@@ -6466,20 +6510,20 @@
       <c r="J148">
         <v>2.282</v>
       </c>
-      <c r="L148">
-        <v>4.5</v>
-      </c>
-      <c r="M148" s="1">
+      <c r="N148">
+        <v>4.5</v>
+      </c>
+      <c r="O148" s="1">
         <v>1.4559999999999999E-6</v>
       </c>
-      <c r="N148" s="1">
+      <c r="P148" s="1">
         <v>1.2500000000000001E-6</v>
       </c>
-      <c r="O148">
+      <c r="Q148">
         <v>3.1179999999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:15">
+    <row r="149" spans="1:17">
       <c r="A149">
         <v>2.4900000000000002</v>
       </c>
@@ -6507,20 +6551,20 @@
       <c r="J149">
         <v>2.2839999999999998</v>
       </c>
-      <c r="L149">
-        <v>4.5</v>
-      </c>
-      <c r="M149" s="1">
+      <c r="N149">
+        <v>4.5</v>
+      </c>
+      <c r="O149" s="1">
         <v>1.4759999999999999E-6</v>
       </c>
-      <c r="N149" s="1">
+      <c r="P149" s="1">
         <v>1.2300000000000001E-6</v>
       </c>
-      <c r="O149">
+      <c r="Q149">
         <v>3.1179999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:17">
       <c r="A150">
         <v>2.4933333333299998</v>
       </c>
@@ -6548,20 +6592,20 @@
       <c r="J150">
         <v>2.2839999999999998</v>
       </c>
-      <c r="L150">
-        <v>4.5</v>
-      </c>
-      <c r="M150" s="1">
+      <c r="N150">
+        <v>4.5</v>
+      </c>
+      <c r="O150" s="1">
         <v>1.5069999999999999E-6</v>
       </c>
-      <c r="N150" s="1">
+      <c r="P150" s="1">
         <v>1.1999999999999999E-6</v>
       </c>
-      <c r="O150">
+      <c r="Q150">
         <v>3.12</v>
       </c>
     </row>
-    <row r="151" spans="1:15">
+    <row r="151" spans="1:17">
       <c r="A151">
         <v>2.4966666666699999</v>
       </c>
@@ -6589,20 +6633,20 @@
       <c r="J151">
         <v>2.2839999999999998</v>
       </c>
-      <c r="L151">
-        <v>4.5</v>
-      </c>
-      <c r="M151" s="1">
+      <c r="N151">
+        <v>4.5</v>
+      </c>
+      <c r="O151" s="1">
         <v>1.556E-6</v>
       </c>
-      <c r="N151" s="1">
+      <c r="P151" s="1">
         <v>1.1400000000000001E-6</v>
       </c>
-      <c r="O151">
+      <c r="Q151">
         <v>3.1219999999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="1:17">
       <c r="A152">
         <v>2.5</v>
       </c>
@@ -6630,20 +6674,20 @@
       <c r="J152">
         <v>2.286</v>
       </c>
-      <c r="L152">
-        <v>4.5</v>
-      </c>
-      <c r="M152" s="1">
+      <c r="N152">
+        <v>4.5</v>
+      </c>
+      <c r="O152" s="1">
         <v>1.5829999999999999E-6</v>
       </c>
-      <c r="N152" s="1">
+      <c r="P152" s="1">
         <v>1.1200000000000001E-6</v>
       </c>
-      <c r="O152">
+      <c r="Q152">
         <v>3.1240000000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:15">
+    <row r="153" spans="1:17">
       <c r="A153">
         <v>2.5033333333300001</v>
       </c>
@@ -6671,20 +6715,20 @@
       <c r="J153">
         <v>2.286</v>
       </c>
-      <c r="L153">
-        <v>4.5</v>
-      </c>
-      <c r="M153" s="1">
+      <c r="N153">
+        <v>4.5</v>
+      </c>
+      <c r="O153" s="1">
         <v>1.607E-6</v>
       </c>
-      <c r="N153" s="1">
+      <c r="P153" s="1">
         <v>1.0899999999999999E-6</v>
       </c>
-      <c r="O153">
+      <c r="Q153">
         <v>3.1240000000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:15">
+    <row r="154" spans="1:17">
       <c r="A154">
         <v>2.5066666666700002</v>
       </c>
@@ -6712,20 +6756,20 @@
       <c r="J154">
         <v>2.2879999999999998</v>
       </c>
-      <c r="L154">
-        <v>4.5</v>
-      </c>
-      <c r="M154" s="1">
+      <c r="N154">
+        <v>4.5</v>
+      </c>
+      <c r="O154" s="1">
         <v>1.658E-6</v>
       </c>
-      <c r="N154" s="1">
+      <c r="P154" s="1">
         <v>1.04E-6</v>
       </c>
-      <c r="O154">
+      <c r="Q154">
         <v>3.1259999999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:15">
+    <row r="155" spans="1:17">
       <c r="A155">
         <v>2.5099999999999998</v>
       </c>
@@ -6753,20 +6797,20 @@
       <c r="J155">
         <v>2.2879999999999998</v>
       </c>
-      <c r="L155">
-        <v>4.5</v>
-      </c>
-      <c r="M155" s="1">
+      <c r="N155">
+        <v>4.5</v>
+      </c>
+      <c r="O155" s="1">
         <v>1.6780000000000001E-6</v>
       </c>
-      <c r="N155" s="1">
+      <c r="P155" s="1">
         <v>1.0100000000000001E-6</v>
       </c>
-      <c r="O155">
+      <c r="Q155">
         <v>3.1280000000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:15">
+    <row r="156" spans="1:17">
       <c r="A156">
         <v>2.5133333333299999</v>
       </c>
@@ -6794,20 +6838,20 @@
       <c r="J156">
         <v>2.29</v>
       </c>
-      <c r="L156">
-        <v>4.5</v>
-      </c>
-      <c r="M156" s="1">
+      <c r="N156">
+        <v>4.5</v>
+      </c>
+      <c r="O156" s="1">
         <v>1.7039999999999999E-6</v>
       </c>
-      <c r="N156" s="1">
+      <c r="P156" s="1">
         <v>9.7399999999999991E-7</v>
       </c>
-      <c r="O156">
+      <c r="Q156">
         <v>3.1280000000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:15">
+    <row r="157" spans="1:17">
       <c r="A157">
         <v>2.5166666666699999</v>
       </c>
@@ -6835,20 +6879,20 @@
       <c r="J157">
         <v>2.2919999999999998</v>
       </c>
-      <c r="L157">
-        <v>4.5</v>
-      </c>
-      <c r="M157" s="1">
+      <c r="N157">
+        <v>4.5</v>
+      </c>
+      <c r="O157" s="1">
         <v>1.7570000000000001E-6</v>
       </c>
-      <c r="N157" s="1">
+      <c r="P157" s="1">
         <v>9.2600000000000001E-7</v>
       </c>
-      <c r="O157">
+      <c r="Q157">
         <v>3.1320000000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:15">
+    <row r="158" spans="1:17">
       <c r="A158">
         <v>2.52</v>
       </c>
@@ -6876,20 +6920,20 @@
       <c r="J158">
         <v>2.2919999999999998</v>
       </c>
-      <c r="L158">
-        <v>4.5</v>
-      </c>
-      <c r="M158" s="1">
+      <c r="N158">
+        <v>4.5</v>
+      </c>
+      <c r="O158" s="1">
         <v>1.7770000000000001E-6</v>
       </c>
-      <c r="N158" s="1">
+      <c r="P158" s="1">
         <v>8.9500000000000001E-7</v>
       </c>
-      <c r="O158">
+      <c r="Q158">
         <v>3.1320000000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:15">
+    <row r="159" spans="1:17">
       <c r="A159">
         <v>2.5233333333300001</v>
       </c>
@@ -6917,20 +6961,20 @@
       <c r="J159">
         <v>2.294</v>
       </c>
-      <c r="L159">
-        <v>4.5</v>
-      </c>
-      <c r="M159" s="1">
+      <c r="N159">
+        <v>4.5</v>
+      </c>
+      <c r="O159" s="1">
         <v>1.8020000000000001E-6</v>
       </c>
-      <c r="N159" s="1">
+      <c r="P159" s="1">
         <v>8.7599999999999996E-7</v>
       </c>
-      <c r="O159">
+      <c r="Q159">
         <v>3.1339999999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:15">
+    <row r="160" spans="1:17">
       <c r="A160">
         <v>2.5266666666700002</v>
       </c>
@@ -6958,20 +7002,20 @@
       <c r="J160">
         <v>2.294</v>
       </c>
-      <c r="L160">
-        <v>4.5</v>
-      </c>
-      <c r="M160" s="1">
+      <c r="N160">
+        <v>4.5</v>
+      </c>
+      <c r="O160" s="1">
         <v>1.8500000000000001E-6</v>
       </c>
-      <c r="N160" s="1">
+      <c r="P160" s="1">
         <v>8.2200000000000003E-7</v>
       </c>
-      <c r="O160">
+      <c r="Q160">
         <v>3.1360000000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:15">
+    <row r="161" spans="1:17">
       <c r="A161">
         <v>2.5299999999999998</v>
       </c>
@@ -6999,20 +7043,20 @@
       <c r="J161">
         <v>2.2959999999999998</v>
       </c>
-      <c r="L161">
-        <v>4.5</v>
-      </c>
-      <c r="M161" s="1">
+      <c r="N161">
+        <v>4.5</v>
+      </c>
+      <c r="O161" s="1">
         <v>1.866E-6</v>
       </c>
-      <c r="N161" s="1">
+      <c r="P161" s="1">
         <v>7.9899999999999999E-7</v>
       </c>
-      <c r="O161">
+      <c r="Q161">
         <v>3.1379999999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:15">
+    <row r="162" spans="1:17">
       <c r="A162">
         <v>2.5333333333299999</v>
       </c>
@@ -7040,20 +7084,20 @@
       <c r="J162">
         <v>2.298</v>
       </c>
-      <c r="L162">
-        <v>4.5</v>
-      </c>
-      <c r="M162" s="1">
+      <c r="N162">
+        <v>4.5</v>
+      </c>
+      <c r="O162" s="1">
         <v>1.891E-6</v>
       </c>
-      <c r="N162" s="1">
+      <c r="P162" s="1">
         <v>7.7100000000000001E-7</v>
       </c>
-      <c r="O162">
+      <c r="Q162">
         <v>3.14</v>
       </c>
     </row>
-    <row r="163" spans="1:15">
+    <row r="163" spans="1:17">
       <c r="A163">
         <v>2.53666666667</v>
       </c>
@@ -7081,20 +7125,20 @@
       <c r="J163">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L163">
-        <v>4.5</v>
-      </c>
-      <c r="M163" s="1">
+      <c r="N163">
+        <v>4.5</v>
+      </c>
+      <c r="O163" s="1">
         <v>1.9309999999999998E-6</v>
       </c>
-      <c r="N163" s="1">
+      <c r="P163" s="1">
         <v>7.2600000000000002E-7</v>
       </c>
-      <c r="O163">
+      <c r="Q163">
         <v>3.1419999999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:15">
+    <row r="164" spans="1:17">
       <c r="A164">
         <v>2.54</v>
       </c>
@@ -7122,20 +7166,20 @@
       <c r="J164">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L164">
-        <v>4.5</v>
-      </c>
-      <c r="M164" s="1">
+      <c r="N164">
+        <v>4.5</v>
+      </c>
+      <c r="O164" s="1">
         <v>1.9530000000000002E-6</v>
       </c>
-      <c r="N164" s="1">
+      <c r="P164" s="1">
         <v>7.0500000000000003E-7</v>
       </c>
-      <c r="O164">
+      <c r="Q164">
         <v>3.1440000000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:15">
+    <row r="165" spans="1:17">
       <c r="A165">
         <v>2.5433333333300001</v>
       </c>
@@ -7163,20 +7207,20 @@
       <c r="J165">
         <v>2.302</v>
       </c>
-      <c r="L165">
-        <v>4.5</v>
-      </c>
-      <c r="M165" s="1">
+      <c r="N165">
+        <v>4.5</v>
+      </c>
+      <c r="O165" s="1">
         <v>1.9709999999999998E-6</v>
       </c>
-      <c r="N165" s="1">
+      <c r="P165" s="1">
         <v>6.7999999999999995E-7</v>
       </c>
-      <c r="O165">
+      <c r="Q165">
         <v>3.1459999999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:15">
+    <row r="166" spans="1:17">
       <c r="A166">
         <v>2.5466666666700002</v>
       </c>
@@ -7204,20 +7248,20 @@
       <c r="J166">
         <v>2.3039999999999998</v>
       </c>
-      <c r="L166">
-        <v>4.5</v>
-      </c>
-      <c r="M166" s="1">
+      <c r="N166">
+        <v>4.5</v>
+      </c>
+      <c r="O166" s="1">
         <v>2.03E-6</v>
       </c>
-      <c r="N166" s="1">
+      <c r="P166" s="1">
         <v>6.4600000000000004E-7</v>
       </c>
-      <c r="O166">
+      <c r="Q166">
         <v>3.1480000000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:15">
+    <row r="167" spans="1:17">
       <c r="A167">
         <v>2.5499999999999998</v>
       </c>
@@ -7245,20 +7289,20 @@
       <c r="J167">
         <v>2.306</v>
       </c>
-      <c r="L167">
-        <v>4.5</v>
-      </c>
-      <c r="M167" s="1">
+      <c r="N167">
+        <v>4.5</v>
+      </c>
+      <c r="O167" s="1">
         <v>2.04E-6</v>
       </c>
-      <c r="N167" s="1">
+      <c r="P167" s="1">
         <v>6.1399999999999997E-7</v>
       </c>
-      <c r="O167">
+      <c r="Q167">
         <v>3.15</v>
       </c>
     </row>
-    <row r="168" spans="1:15">
+    <row r="168" spans="1:17">
       <c r="A168">
         <v>2.5533333333299999</v>
       </c>
@@ -7286,20 +7330,20 @@
       <c r="J168">
         <v>2.3079999999999998</v>
       </c>
-      <c r="L168">
-        <v>4.5</v>
-      </c>
-      <c r="M168" s="1">
+      <c r="N168">
+        <v>4.5</v>
+      </c>
+      <c r="O168" s="1">
         <v>2.0600000000000002E-6</v>
       </c>
-      <c r="N168" s="1">
+      <c r="P168" s="1">
         <v>6.0500000000000003E-7</v>
       </c>
-      <c r="O168">
+      <c r="Q168">
         <v>3.1520000000000001</v>
       </c>
     </row>
-    <row r="169" spans="1:15">
+    <row r="169" spans="1:17">
       <c r="A169">
         <v>2.55666666667</v>
       </c>
@@ -7327,20 +7371,20 @@
       <c r="J169">
         <v>2.3079999999999998</v>
       </c>
-      <c r="L169">
-        <v>4.5</v>
-      </c>
-      <c r="M169" s="1">
+      <c r="N169">
+        <v>4.5</v>
+      </c>
+      <c r="O169" s="1">
         <v>2.0999999999999998E-6</v>
       </c>
-      <c r="N169" s="1">
+      <c r="P169" s="1">
         <v>5.6499999999999999E-7</v>
       </c>
-      <c r="O169">
+      <c r="Q169">
         <v>3.1539999999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:15">
+    <row r="170" spans="1:17">
       <c r="A170">
         <v>2.56</v>
       </c>
@@ -7368,20 +7412,20 @@
       <c r="J170">
         <v>2.31</v>
       </c>
-      <c r="L170">
-        <v>4.5</v>
-      </c>
-      <c r="M170" s="1">
+      <c r="N170">
+        <v>4.5</v>
+      </c>
+      <c r="O170" s="1">
         <v>2.0999999999999998E-6</v>
       </c>
-      <c r="N170" s="1">
+      <c r="P170" s="1">
         <v>5.51E-7</v>
       </c>
-      <c r="O170">
+      <c r="Q170">
         <v>3.1560000000000001</v>
       </c>
     </row>
-    <row r="171" spans="1:15">
+    <row r="171" spans="1:17">
       <c r="A171">
         <v>2.5633333333300001</v>
       </c>
@@ -7409,20 +7453,20 @@
       <c r="J171">
         <v>2.3119999999999998</v>
       </c>
-      <c r="L171">
-        <v>4.5</v>
-      </c>
-      <c r="M171" s="1">
+      <c r="N171">
+        <v>4.5</v>
+      </c>
+      <c r="O171" s="1">
         <v>2.1100000000000001E-6</v>
       </c>
-      <c r="N171" s="1">
+      <c r="P171" s="1">
         <v>5.3399999999999999E-7</v>
       </c>
-      <c r="O171">
+      <c r="Q171">
         <v>3.1579999999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:15">
+    <row r="172" spans="1:17">
       <c r="A172">
         <v>2.5666666666700002</v>
       </c>
@@ -7450,20 +7494,20 @@
       <c r="J172">
         <v>2.3140000000000001</v>
       </c>
-      <c r="L172">
-        <v>4.5</v>
-      </c>
-      <c r="M172" s="1">
+      <c r="N172">
+        <v>4.5</v>
+      </c>
+      <c r="O172" s="1">
         <v>2.1399999999999998E-6</v>
       </c>
-      <c r="N172" s="1">
+      <c r="P172" s="1">
         <v>4.9999999999999998E-7</v>
       </c>
-      <c r="O172">
+      <c r="Q172">
         <v>3.1619999999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:15">
+    <row r="173" spans="1:17">
       <c r="A173">
         <v>2.57</v>
       </c>
@@ -7491,20 +7535,20 @@
       <c r="J173">
         <v>2.3159999999999998</v>
       </c>
-      <c r="L173">
-        <v>4.5</v>
-      </c>
-      <c r="M173" s="1">
+      <c r="N173">
+        <v>4.5</v>
+      </c>
+      <c r="O173" s="1">
         <v>2.1600000000000001E-6</v>
       </c>
-      <c r="N173" s="1">
+      <c r="P173" s="1">
         <v>4.7800000000000002E-7</v>
       </c>
-      <c r="O173">
+      <c r="Q173">
         <v>3.1619999999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:15">
+    <row r="174" spans="1:17">
       <c r="A174">
         <v>2.5733333333299999</v>
       </c>
@@ -7532,20 +7576,20 @@
       <c r="J174">
         <v>2.3180000000000001</v>
       </c>
-      <c r="L174">
-        <v>4.5</v>
-      </c>
-      <c r="M174" s="1">
+      <c r="N174">
+        <v>4.5</v>
+      </c>
+      <c r="O174" s="1">
         <v>2.1799999999999999E-6</v>
       </c>
-      <c r="N174" s="1">
+      <c r="P174" s="1">
         <v>4.7399999999999998E-7</v>
       </c>
-      <c r="O174">
+      <c r="Q174">
         <v>3.1640000000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:15">
+    <row r="175" spans="1:17">
       <c r="A175">
         <v>2.57666666667</v>
       </c>
@@ -7573,20 +7617,20 @@
       <c r="J175">
         <v>2.3199999999999998</v>
       </c>
-      <c r="L175">
-        <v>4.5</v>
-      </c>
-      <c r="M175" s="1">
+      <c r="N175">
+        <v>4.5</v>
+      </c>
+      <c r="O175" s="1">
         <v>2.2000000000000001E-6</v>
       </c>
-      <c r="N175" s="1">
+      <c r="P175" s="1">
         <v>4.4299999999999998E-7</v>
       </c>
-      <c r="O175">
+      <c r="Q175">
         <v>3.1680000000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:15">
+    <row r="176" spans="1:17">
       <c r="A176">
         <v>2.58</v>
       </c>
@@ -7614,20 +7658,20 @@
       <c r="J176">
         <v>2.3220000000000001</v>
       </c>
-      <c r="L176">
-        <v>4.5</v>
-      </c>
-      <c r="M176" s="1">
+      <c r="N176">
+        <v>4.5</v>
+      </c>
+      <c r="O176" s="1">
         <v>2.21E-6</v>
       </c>
-      <c r="N176" s="1">
+      <c r="P176" s="1">
         <v>4.2800000000000002E-7</v>
       </c>
-      <c r="O176">
+      <c r="Q176">
         <v>3.17</v>
       </c>
     </row>
-    <row r="177" spans="1:15">
+    <row r="177" spans="1:17">
       <c r="A177">
         <v>2.5833333333300001</v>
       </c>
@@ -7655,20 +7699,20 @@
       <c r="J177">
         <v>2.3239999999999998</v>
       </c>
-      <c r="L177">
-        <v>4.5</v>
-      </c>
-      <c r="M177" s="1">
+      <c r="N177">
+        <v>4.5</v>
+      </c>
+      <c r="O177" s="1">
         <v>2.2199999999999999E-6</v>
       </c>
-      <c r="N177" s="1">
+      <c r="P177" s="1">
         <v>4.1699999999999999E-7</v>
       </c>
-      <c r="O177">
+      <c r="Q177">
         <v>3.1720000000000002</v>
       </c>
     </row>
-    <row r="178" spans="1:15">
+    <row r="178" spans="1:17">
       <c r="A178">
         <v>2.5866666666699998</v>
       </c>
@@ -7696,20 +7740,20 @@
       <c r="J178">
         <v>2.3260000000000001</v>
       </c>
-      <c r="L178">
-        <v>4.5</v>
-      </c>
-      <c r="M178" s="1">
+      <c r="N178">
+        <v>4.5</v>
+      </c>
+      <c r="O178" s="1">
         <v>2.2500000000000001E-6</v>
       </c>
-      <c r="N178" s="1">
+      <c r="P178" s="1">
         <v>3.9400000000000001E-7</v>
       </c>
-      <c r="O178">
+      <c r="Q178">
         <v>3.1739999999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:15">
+    <row r="179" spans="1:17">
       <c r="A179">
         <v>2.59</v>
       </c>
@@ -7737,20 +7781,20 @@
       <c r="J179">
         <v>2.3279999999999998</v>
       </c>
-      <c r="L179">
-        <v>4.5</v>
-      </c>
-      <c r="M179" s="1">
+      <c r="N179">
+        <v>4.5</v>
+      </c>
+      <c r="O179" s="1">
         <v>2.2500000000000001E-6</v>
       </c>
-      <c r="N179" s="1">
+      <c r="P179" s="1">
         <v>3.7899999999999999E-7</v>
       </c>
-      <c r="O179">
+      <c r="Q179">
         <v>3.1760000000000002</v>
       </c>
     </row>
-    <row r="180" spans="1:15">
+    <row r="180" spans="1:17">
       <c r="A180">
         <v>2.5933333333299999</v>
       </c>
@@ -7778,20 +7822,20 @@
       <c r="J180">
         <v>2.33</v>
       </c>
-      <c r="L180">
-        <v>4.5</v>
-      </c>
-      <c r="M180" s="1">
+      <c r="N180">
+        <v>4.5</v>
+      </c>
+      <c r="O180" s="1">
         <v>2.26E-6</v>
       </c>
-      <c r="N180" s="1">
+      <c r="P180" s="1">
         <v>3.7599999999999998E-7</v>
       </c>
-      <c r="O180">
+      <c r="Q180">
         <v>3.1779999999999999</v>
       </c>
     </row>
-    <row r="181" spans="1:15">
+    <row r="181" spans="1:17">
       <c r="A181">
         <v>2.59666666667</v>
       </c>
@@ -7819,20 +7863,20 @@
       <c r="J181">
         <v>2.3319999999999999</v>
       </c>
-      <c r="L181">
-        <v>4.5</v>
-      </c>
-      <c r="M181" s="1">
+      <c r="N181">
+        <v>4.5</v>
+      </c>
+      <c r="O181" s="1">
         <v>2.2699999999999999E-6</v>
       </c>
-      <c r="N181" s="1">
+      <c r="P181" s="1">
         <v>3.53E-7</v>
       </c>
-      <c r="O181">
+      <c r="Q181">
         <v>3.1819999999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:15">
+    <row r="182" spans="1:17">
       <c r="A182">
         <v>2.6</v>
       </c>
@@ -7860,20 +7904,20 @@
       <c r="J182">
         <v>2.3340000000000001</v>
       </c>
-      <c r="L182">
-        <v>4.5</v>
-      </c>
-      <c r="M182" s="1">
+      <c r="N182">
+        <v>4.5</v>
+      </c>
+      <c r="O182" s="1">
         <v>2.2900000000000001E-6</v>
       </c>
-      <c r="N182" s="1">
+      <c r="P182" s="1">
         <v>3.4999999999999998E-7</v>
       </c>
-      <c r="O182">
+      <c r="Q182">
         <v>3.1840000000000002</v>
       </c>
     </row>
-    <row r="183" spans="1:15">
+    <row r="183" spans="1:17">
       <c r="A183">
         <v>2.6033333333300002</v>
       </c>
@@ -7901,20 +7945,20 @@
       <c r="J183">
         <v>2.3359999999999999</v>
       </c>
-      <c r="L183">
-        <v>4.5</v>
-      </c>
-      <c r="M183" s="1">
+      <c r="N183">
+        <v>4.5</v>
+      </c>
+      <c r="O183" s="1">
         <v>2.2900000000000001E-6</v>
       </c>
-      <c r="N183" s="1">
+      <c r="P183" s="1">
         <v>3.3599999999999999E-7</v>
       </c>
-      <c r="O183">
+      <c r="Q183">
         <v>3.1859999999999999</v>
       </c>
     </row>
-    <row r="184" spans="1:15">
+    <row r="184" spans="1:17">
       <c r="A184">
         <v>2.6066666666699998</v>
       </c>
@@ -7942,20 +7986,20 @@
       <c r="J184">
         <v>2.34</v>
       </c>
-      <c r="L184">
-        <v>4.5</v>
-      </c>
-      <c r="M184" s="1">
+      <c r="N184">
+        <v>4.5</v>
+      </c>
+      <c r="O184" s="1">
         <v>2.2900000000000001E-6</v>
       </c>
-      <c r="N184" s="1">
+      <c r="P184" s="1">
         <v>3.2300000000000002E-7</v>
       </c>
-      <c r="O184">
+      <c r="Q184">
         <v>3.19</v>
       </c>
     </row>
-    <row r="185" spans="1:15">
+    <row r="185" spans="1:17">
       <c r="A185">
         <v>2.61</v>
       </c>
@@ -7983,20 +8027,20 @@
       <c r="J185">
         <v>2.3420000000000001</v>
       </c>
-      <c r="L185">
-        <v>4.5</v>
-      </c>
-      <c r="M185" s="1">
+      <c r="N185">
+        <v>4.5</v>
+      </c>
+      <c r="O185" s="1">
         <v>2.3099999999999999E-6</v>
       </c>
-      <c r="N185" s="1">
+      <c r="P185" s="1">
         <v>3.1300000000000001E-7</v>
       </c>
-      <c r="O185">
+      <c r="Q185">
         <v>3.1920000000000002</v>
       </c>
     </row>
-    <row r="186" spans="1:15">
+    <row r="186" spans="1:17">
       <c r="A186">
         <v>2.61333333333</v>
       </c>
@@ -8024,20 +8068,20 @@
       <c r="J186">
         <v>2.3439999999999999</v>
       </c>
-      <c r="L186">
-        <v>4.5</v>
-      </c>
-      <c r="M186" s="1">
+      <c r="N186">
+        <v>4.5</v>
+      </c>
+      <c r="O186" s="1">
         <v>2.3099999999999999E-6</v>
       </c>
-      <c r="N186" s="1">
+      <c r="P186" s="1">
         <v>3.0800000000000001E-7</v>
       </c>
-      <c r="O186">
+      <c r="Q186">
         <v>3.194</v>
       </c>
     </row>
-    <row r="187" spans="1:15">
+    <row r="187" spans="1:17">
       <c r="A187">
         <v>2.61666666667</v>
       </c>
@@ -8065,20 +8109,20 @@
       <c r="J187">
         <v>2.3460000000000001</v>
       </c>
-      <c r="L187">
-        <v>4.5</v>
-      </c>
-      <c r="M187" s="1">
+      <c r="N187">
+        <v>4.5</v>
+      </c>
+      <c r="O187" s="1">
         <v>2.3300000000000001E-6</v>
       </c>
-      <c r="N187" s="1">
+      <c r="P187" s="1">
         <v>2.9700000000000003E-7</v>
       </c>
-      <c r="O187">
+      <c r="Q187">
         <v>3.198</v>
       </c>
     </row>
-    <row r="188" spans="1:15">
+    <row r="188" spans="1:17">
       <c r="A188">
         <v>2.62</v>
       </c>
@@ -8106,20 +8150,20 @@
       <c r="J188">
         <v>2.3479999999999999</v>
       </c>
-      <c r="L188">
-        <v>4.5</v>
-      </c>
-      <c r="M188" s="1">
+      <c r="N188">
+        <v>4.5</v>
+      </c>
+      <c r="O188" s="1">
         <v>2.3199999999999998E-6</v>
       </c>
-      <c r="N188" s="1">
+      <c r="P188" s="1">
         <v>2.91E-7</v>
       </c>
-      <c r="O188">
+      <c r="Q188">
         <v>3.2</v>
       </c>
     </row>
-    <row r="189" spans="1:15">
+    <row r="189" spans="1:17">
       <c r="A189">
         <v>2.6233333333300002</v>
       </c>
@@ -8147,20 +8191,20 @@
       <c r="J189">
         <v>2.35</v>
       </c>
-      <c r="L189">
-        <v>4.5</v>
-      </c>
-      <c r="M189" s="1">
+      <c r="N189">
+        <v>4.5</v>
+      </c>
+      <c r="O189" s="1">
         <v>2.3199999999999998E-6</v>
       </c>
-      <c r="N189" s="1">
+      <c r="P189" s="1">
         <v>2.8500000000000002E-7</v>
       </c>
-      <c r="O189">
+      <c r="Q189">
         <v>3.202</v>
       </c>
     </row>
-    <row r="190" spans="1:15">
+    <row r="190" spans="1:17">
       <c r="A190">
         <v>2.6266666666699998</v>
       </c>
@@ -8188,20 +8232,20 @@
       <c r="J190">
         <v>2.3540000000000001</v>
       </c>
-      <c r="L190">
-        <v>4.5</v>
-      </c>
-      <c r="M190" s="1">
+      <c r="N190">
+        <v>4.5</v>
+      </c>
+      <c r="O190" s="1">
         <v>2.3300000000000001E-6</v>
       </c>
-      <c r="N190" s="1">
+      <c r="P190" s="1">
         <v>2.79E-7</v>
       </c>
-      <c r="O190">
+      <c r="Q190">
         <v>3.206</v>
       </c>
     </row>
-    <row r="191" spans="1:15">
+    <row r="191" spans="1:17">
       <c r="A191">
         <v>2.63</v>
       </c>
@@ -8229,20 +8273,20 @@
       <c r="J191">
         <v>2.3559999999999999</v>
       </c>
-      <c r="L191">
-        <v>4.5</v>
-      </c>
-      <c r="M191" s="1">
+      <c r="N191">
+        <v>4.5</v>
+      </c>
+      <c r="O191" s="1">
         <v>2.34E-6</v>
       </c>
-      <c r="N191" s="1">
+      <c r="P191" s="1">
         <v>2.7500000000000001E-7</v>
       </c>
-      <c r="O191">
+      <c r="Q191">
         <v>3.2080000000000002</v>
       </c>
     </row>
-    <row r="192" spans="1:15">
+    <row r="192" spans="1:17">
       <c r="A192">
         <v>2.63333333333</v>
       </c>
@@ -8270,20 +8314,20 @@
       <c r="J192">
         <v>2.3580000000000001</v>
       </c>
-      <c r="L192">
-        <v>4.5</v>
-      </c>
-      <c r="M192" s="1">
+      <c r="N192">
+        <v>4.5</v>
+      </c>
+      <c r="O192" s="1">
         <v>2.3300000000000001E-6</v>
       </c>
-      <c r="N192" s="1">
+      <c r="P192" s="1">
         <v>2.7399999999999999E-7</v>
       </c>
-      <c r="O192">
+      <c r="Q192">
         <v>3.21</v>
       </c>
     </row>
-    <row r="193" spans="1:15">
+    <row r="193" spans="1:17">
       <c r="A193">
         <v>2.63666666667</v>
       </c>
@@ -8311,20 +8355,20 @@
       <c r="J193">
         <v>2.36</v>
       </c>
-      <c r="L193">
-        <v>4.5</v>
-      </c>
-      <c r="M193" s="1">
+      <c r="N193">
+        <v>4.5</v>
+      </c>
+      <c r="O193" s="1">
         <v>2.34E-6</v>
       </c>
-      <c r="N193" s="1">
+      <c r="P193" s="1">
         <v>2.6399999999999998E-7</v>
       </c>
-      <c r="O193">
+      <c r="Q193">
         <v>3.214</v>
       </c>
     </row>
-    <row r="194" spans="1:15">
+    <row r="194" spans="1:17">
       <c r="A194">
         <v>2.64</v>
       </c>
@@ -8352,20 +8396,20 @@
       <c r="J194">
         <v>2.3620000000000001</v>
       </c>
-      <c r="L194">
-        <v>4.5</v>
-      </c>
-      <c r="M194" s="1">
+      <c r="N194">
+        <v>4.5</v>
+      </c>
+      <c r="O194" s="1">
         <v>2.34E-6</v>
       </c>
-      <c r="N194" s="1">
+      <c r="P194" s="1">
         <v>2.5800000000000001E-7</v>
       </c>
-      <c r="O194">
+      <c r="Q194">
         <v>3.2160000000000002</v>
       </c>
     </row>
-    <row r="195" spans="1:15">
+    <row r="195" spans="1:17">
       <c r="A195">
         <v>2.6433333333300002</v>
       </c>
@@ -8393,20 +8437,20 @@
       <c r="J195">
         <v>2.3639999999999999</v>
       </c>
-      <c r="L195">
-        <v>4.5</v>
-      </c>
-      <c r="M195" s="1">
+      <c r="N195">
+        <v>4.5</v>
+      </c>
+      <c r="O195" s="1">
         <v>2.3499999999999999E-6</v>
       </c>
-      <c r="N195" s="1">
+      <c r="P195" s="1">
         <v>2.6199999999999999E-7</v>
       </c>
-      <c r="O195">
+      <c r="Q195">
         <v>3.218</v>
       </c>
     </row>
-    <row r="196" spans="1:15">
+    <row r="196" spans="1:17">
       <c r="A196">
         <v>2.6466666666699998</v>
       </c>
@@ -8434,20 +8478,20 @@
       <c r="J196">
         <v>2.3679999999999999</v>
       </c>
-      <c r="L196">
-        <v>4.5</v>
-      </c>
-      <c r="M196" s="1">
+      <c r="N196">
+        <v>4.5</v>
+      </c>
+      <c r="O196" s="1">
         <v>2.34E-6</v>
       </c>
-      <c r="N196" s="1">
+      <c r="P196" s="1">
         <v>2.5400000000000002E-7</v>
       </c>
-      <c r="O196">
+      <c r="Q196">
         <v>3.222</v>
       </c>
     </row>
-    <row r="197" spans="1:15">
+    <row r="197" spans="1:17">
       <c r="A197">
         <v>2.65</v>
       </c>
@@ -8475,20 +8519,20 @@
       <c r="J197">
         <v>2.37</v>
       </c>
-      <c r="L197">
-        <v>4.5</v>
-      </c>
-      <c r="M197" s="1">
+      <c r="N197">
+        <v>4.5</v>
+      </c>
+      <c r="O197" s="1">
         <v>2.3499999999999999E-6</v>
       </c>
-      <c r="N197" s="1">
+      <c r="P197" s="1">
         <v>2.5600000000000002E-7</v>
       </c>
-      <c r="O197">
+      <c r="Q197">
         <v>3.2240000000000002</v>
       </c>
     </row>
-    <row r="198" spans="1:15">
+    <row r="198" spans="1:17">
       <c r="A198">
         <v>2.65333333333</v>
       </c>
@@ -8516,20 +8560,20 @@
       <c r="J198">
         <v>2.3719999999999999</v>
       </c>
-      <c r="L198">
-        <v>4.5</v>
-      </c>
-      <c r="M198" s="1">
+      <c r="N198">
+        <v>4.5</v>
+      </c>
+      <c r="O198" s="1">
         <v>2.3499999999999999E-6</v>
       </c>
-      <c r="N198" s="1">
+      <c r="P198" s="1">
         <v>2.5100000000000001E-7</v>
       </c>
-      <c r="O198">
+      <c r="Q198">
         <v>3.226</v>
       </c>
     </row>
-    <row r="199" spans="1:15">
+    <row r="199" spans="1:17">
       <c r="A199">
         <v>2.6566666666700001</v>
       </c>
@@ -8557,20 +8601,20 @@
       <c r="J199">
         <v>2.3759999999999999</v>
       </c>
-      <c r="L199">
-        <v>4.5</v>
-      </c>
-      <c r="M199" s="1">
+      <c r="N199">
+        <v>4.5</v>
+      </c>
+      <c r="O199" s="1">
         <v>2.3499999999999999E-6</v>
       </c>
-      <c r="N199" s="1">
+      <c r="P199" s="1">
         <v>2.48E-7</v>
       </c>
-      <c r="O199">
+      <c r="Q199">
         <v>3.23</v>
       </c>
     </row>
-    <row r="200" spans="1:15">
+    <row r="200" spans="1:17">
       <c r="A200">
         <v>2.66</v>
       </c>
@@ -8598,20 +8642,20 @@
       <c r="J200">
         <v>2.3780000000000001</v>
       </c>
-      <c r="L200">
-        <v>4.5</v>
-      </c>
-      <c r="M200" s="1">
+      <c r="N200">
+        <v>4.5</v>
+      </c>
+      <c r="O200" s="1">
         <v>2.3499999999999999E-6</v>
       </c>
-      <c r="N200" s="1">
+      <c r="P200" s="1">
         <v>2.4699999999999998E-7</v>
       </c>
-      <c r="O200">
+      <c r="Q200">
         <v>3.2320000000000002</v>
       </c>
     </row>
-    <row r="201" spans="1:15">
+    <row r="201" spans="1:17">
       <c r="A201">
         <v>2.6633333333300002</v>
       </c>
@@ -8639,20 +8683,20 @@
       <c r="J201">
         <v>2.38</v>
       </c>
-      <c r="L201">
-        <v>4.5</v>
-      </c>
-      <c r="M201" s="1">
+      <c r="N201">
+        <v>4.5</v>
+      </c>
+      <c r="O201" s="1">
         <v>2.34E-6</v>
       </c>
-      <c r="N201" s="1">
+      <c r="P201" s="1">
         <v>2.4499999999999998E-7</v>
       </c>
-      <c r="O201">
+      <c r="Q201">
         <v>3.234</v>
       </c>
     </row>
-    <row r="202" spans="1:15">
+    <row r="202" spans="1:17">
       <c r="A202">
         <v>2.6666666666699999</v>
       </c>
@@ -8680,20 +8724,20 @@
       <c r="J202">
         <v>2.3820000000000001</v>
       </c>
-      <c r="L202">
-        <v>4.5</v>
-      </c>
-      <c r="M202" s="1">
+      <c r="N202">
+        <v>4.5</v>
+      </c>
+      <c r="O202" s="1">
         <v>2.3499999999999999E-6</v>
       </c>
-      <c r="N202" s="1">
+      <c r="P202" s="1">
         <v>2.3699999999999999E-7</v>
       </c>
-      <c r="O202">
+      <c r="Q202">
         <v>3.238</v>
       </c>
     </row>
-    <row r="203" spans="1:15">
+    <row r="203" spans="1:17">
       <c r="A203">
         <v>2.67</v>
       </c>
@@ -8721,20 +8765,20 @@
       <c r="J203">
         <v>2.3860000000000001</v>
       </c>
-      <c r="L203">
-        <v>4.5</v>
-      </c>
-      <c r="M203" s="1">
+      <c r="N203">
+        <v>4.5</v>
+      </c>
+      <c r="O203" s="1">
         <v>2.3499999999999999E-6</v>
       </c>
-      <c r="N203" s="1">
+      <c r="P203" s="1">
         <v>2.41E-7</v>
       </c>
-      <c r="O203">
+      <c r="Q203">
         <v>3.24</v>
       </c>
     </row>
-    <row r="204" spans="1:15">
+    <row r="204" spans="1:17">
       <c r="A204">
         <v>2.67333333333</v>
       </c>
@@ -8762,20 +8806,20 @@
       <c r="J204">
         <v>2.3879999999999999</v>
       </c>
-      <c r="L204">
-        <v>4.5</v>
-      </c>
-      <c r="M204" s="1">
+      <c r="N204">
+        <v>4.5</v>
+      </c>
+      <c r="O204" s="1">
         <v>2.34E-6</v>
       </c>
-      <c r="N204" s="1">
+      <c r="P204" s="1">
         <v>2.3300000000000001E-7</v>
       </c>
-      <c r="O204">
+      <c r="Q204">
         <v>3.242</v>
       </c>
     </row>
-    <row r="205" spans="1:15">
+    <row r="205" spans="1:17">
       <c r="A205">
         <v>2.6766666666700001</v>
       </c>
@@ -8803,20 +8847,20 @@
       <c r="J205">
         <v>2.39</v>
       </c>
-      <c r="L205">
-        <v>4.5</v>
-      </c>
-      <c r="M205" s="1">
+      <c r="N205">
+        <v>4.5</v>
+      </c>
+      <c r="O205" s="1">
         <v>2.34E-6</v>
       </c>
-      <c r="N205" s="1">
+      <c r="P205" s="1">
         <v>2.36E-7</v>
       </c>
-      <c r="O205">
+      <c r="Q205">
         <v>3.246</v>
       </c>
     </row>
-    <row r="206" spans="1:15">
+    <row r="206" spans="1:17">
       <c r="A206">
         <v>2.68</v>
       </c>
@@ -8844,20 +8888,20 @@
       <c r="J206">
         <v>2.3919999999999999</v>
       </c>
-      <c r="L206">
-        <v>4.5</v>
-      </c>
-      <c r="M206" s="1">
+      <c r="N206">
+        <v>4.5</v>
+      </c>
+      <c r="O206" s="1">
         <v>2.3499999999999999E-6</v>
       </c>
-      <c r="N206" s="1">
+      <c r="P206" s="1">
         <v>2.35E-7</v>
       </c>
-      <c r="O206">
+      <c r="Q206">
         <v>3.2480000000000002</v>
       </c>
     </row>
-    <row r="207" spans="1:15">
+    <row r="207" spans="1:17">
       <c r="A207">
         <v>2.6833333333299998</v>
       </c>
@@ -8885,20 +8929,20 @@
       <c r="J207">
         <v>2.3959999999999999</v>
       </c>
-      <c r="L207">
-        <v>4.5</v>
-      </c>
-      <c r="M207" s="1">
+      <c r="N207">
+        <v>4.5</v>
+      </c>
+      <c r="O207" s="1">
         <v>2.3499999999999999E-6</v>
       </c>
-      <c r="N207" s="1">
+      <c r="P207" s="1">
         <v>2.3300000000000001E-7</v>
       </c>
-      <c r="O207">
+      <c r="Q207">
         <v>3.25</v>
       </c>
     </row>
-    <row r="208" spans="1:15">
+    <row r="208" spans="1:17">
       <c r="A208">
         <v>2.6866666666699999</v>
       </c>
@@ -8926,20 +8970,20 @@
       <c r="J208">
         <v>2.3980000000000001</v>
       </c>
-      <c r="L208">
-        <v>4.5</v>
-      </c>
-      <c r="M208" s="1">
+      <c r="N208">
+        <v>4.5</v>
+      </c>
+      <c r="O208" s="1">
         <v>2.3499999999999999E-6</v>
       </c>
-      <c r="N208" s="1">
+      <c r="P208" s="1">
         <v>2.3099999999999999E-7</v>
       </c>
-      <c r="O208">
+      <c r="Q208">
         <v>3.254</v>
       </c>
     </row>
-    <row r="209" spans="1:15">
+    <row r="209" spans="1:17">
       <c r="A209">
         <v>2.69</v>
       </c>
@@ -8967,20 +9011,20 @@
       <c r="J209">
         <v>2.4</v>
       </c>
-      <c r="L209">
-        <v>4.5</v>
-      </c>
-      <c r="M209" s="1">
+      <c r="N209">
+        <v>4.5</v>
+      </c>
+      <c r="O209" s="1">
         <v>2.3499999999999999E-6</v>
       </c>
-      <c r="N209" s="1">
+      <c r="P209" s="1">
         <v>2.3300000000000001E-7</v>
       </c>
-      <c r="O209">
+      <c r="Q209">
         <v>3.2559999999999998</v>
       </c>
     </row>
-    <row r="210" spans="1:15">
+    <row r="210" spans="1:17">
       <c r="A210">
         <v>2.69333333333</v>
       </c>
@@ -9008,20 +9052,20 @@
       <c r="J210">
         <v>2.4020000000000001</v>
       </c>
-      <c r="L210">
-        <v>4.5</v>
-      </c>
-      <c r="M210" s="1">
+      <c r="N210">
+        <v>4.5</v>
+      </c>
+      <c r="O210" s="1">
         <v>2.34E-6</v>
       </c>
-      <c r="N210" s="1">
+      <c r="P210" s="1">
         <v>2.2999999999999999E-7</v>
       </c>
-      <c r="O210">
+      <c r="Q210">
         <v>3.258</v>
       </c>
     </row>
-    <row r="211" spans="1:15">
+    <row r="211" spans="1:17">
       <c r="A211">
         <v>2.6966666666700001</v>
       </c>
@@ -9049,20 +9093,20 @@
       <c r="J211">
         <v>2.4060000000000001</v>
       </c>
-      <c r="L211">
-        <v>4.5</v>
-      </c>
-      <c r="M211" s="1">
+      <c r="N211">
+        <v>4.5</v>
+      </c>
+      <c r="O211" s="1">
         <v>2.34E-6</v>
       </c>
-      <c r="N211" s="1">
+      <c r="P211" s="1">
         <v>2.2499999999999999E-7</v>
       </c>
-      <c r="O211">
+      <c r="Q211">
         <v>3.262</v>
       </c>
     </row>
-    <row r="212" spans="1:15">
+    <row r="212" spans="1:17">
       <c r="A212">
         <v>2.7</v>
       </c>
@@ -9090,20 +9134,20 @@
       <c r="J212">
         <v>2.4079999999999999</v>
       </c>
-      <c r="L212">
-        <v>4.5</v>
-      </c>
-      <c r="M212" s="1">
+      <c r="N212">
+        <v>4.5</v>
+      </c>
+      <c r="O212" s="1">
         <v>2.34E-6</v>
       </c>
-      <c r="N212" s="1">
+      <c r="P212" s="1">
         <v>2.3099999999999999E-7</v>
       </c>
-      <c r="O212">
+      <c r="Q212">
         <v>3.2639999999999998</v>
       </c>
     </row>
-    <row r="213" spans="1:15">
+    <row r="213" spans="1:17">
       <c r="A213">
         <v>2.7033333333299998</v>
       </c>
@@ -9131,20 +9175,20 @@
       <c r="J213">
         <v>2.41</v>
       </c>
-      <c r="L213">
-        <v>4.5</v>
-      </c>
-      <c r="M213" s="1">
+      <c r="N213">
+        <v>4.5</v>
+      </c>
+      <c r="O213" s="1">
         <v>2.34E-6</v>
       </c>
-      <c r="N213" s="1">
+      <c r="P213" s="1">
         <v>2.28E-7</v>
       </c>
-      <c r="O213">
+      <c r="Q213">
         <v>3.266</v>
       </c>
     </row>
-    <row r="214" spans="1:15">
+    <row r="214" spans="1:17">
       <c r="A214">
         <v>2.7066666666699999</v>
       </c>
@@ -9172,20 +9216,20 @@
       <c r="J214">
         <v>2.4140000000000001</v>
       </c>
-      <c r="L214">
-        <v>4.5</v>
-      </c>
-      <c r="M214" s="1">
+      <c r="N214">
+        <v>4.5</v>
+      </c>
+      <c r="O214" s="1">
         <v>2.34E-6</v>
       </c>
-      <c r="N214" s="1">
+      <c r="P214" s="1">
         <v>2.28E-7</v>
       </c>
-      <c r="O214">
+      <c r="Q214">
         <v>3.27</v>
       </c>
     </row>
-    <row r="215" spans="1:15">
+    <row r="215" spans="1:17">
       <c r="A215">
         <v>2.71</v>
       </c>
@@ -9213,20 +9257,20 @@
       <c r="J215">
         <v>2.4159999999999999</v>
       </c>
-      <c r="L215">
-        <v>4.5</v>
-      </c>
-      <c r="M215" s="1">
+      <c r="N215">
+        <v>4.5</v>
+      </c>
+      <c r="O215" s="1">
         <v>2.34E-6</v>
       </c>
-      <c r="N215" s="1">
+      <c r="P215" s="1">
         <v>2.2399999999999999E-7</v>
       </c>
-      <c r="O215">
+      <c r="Q215">
         <v>3.2719999999999998</v>
       </c>
     </row>
-    <row r="216" spans="1:15">
+    <row r="216" spans="1:17">
       <c r="A216">
         <v>2.71333333333</v>
       </c>
@@ -9254,20 +9298,20 @@
       <c r="J216">
         <v>2.42</v>
       </c>
-      <c r="L216">
-        <v>4.5</v>
-      </c>
-      <c r="M216" s="1">
+      <c r="N216">
+        <v>4.5</v>
+      </c>
+      <c r="O216" s="1">
         <v>2.34E-6</v>
       </c>
-      <c r="N216" s="1">
+      <c r="P216" s="1">
         <v>2.22E-7</v>
       </c>
-      <c r="O216">
+      <c r="Q216">
         <v>3.274</v>
       </c>
     </row>
-    <row r="217" spans="1:15">
+    <row r="217" spans="1:17">
       <c r="A217">
         <v>2.7166666666700001</v>
       </c>
@@ -9295,20 +9339,20 @@
       <c r="J217">
         <v>2.4220000000000002</v>
       </c>
-      <c r="L217">
-        <v>4.5</v>
-      </c>
-      <c r="M217" s="1">
+      <c r="N217">
+        <v>4.5</v>
+      </c>
+      <c r="O217" s="1">
         <v>2.3300000000000001E-6</v>
       </c>
-      <c r="N217" s="1">
+      <c r="P217" s="1">
         <v>2.22E-7</v>
       </c>
-      <c r="O217">
+      <c r="Q217">
         <v>3.278</v>
       </c>
     </row>
-    <row r="218" spans="1:15">
+    <row r="218" spans="1:17">
       <c r="A218">
         <v>2.72</v>
       </c>
@@ -9336,20 +9380,20 @@
       <c r="J218">
         <v>2.4239999999999999</v>
       </c>
-      <c r="L218">
-        <v>4.5</v>
-      </c>
-      <c r="M218" s="1">
+      <c r="N218">
+        <v>4.5</v>
+      </c>
+      <c r="O218" s="1">
         <v>2.3300000000000001E-6</v>
       </c>
-      <c r="N218" s="1">
+      <c r="P218" s="1">
         <v>2.22E-7</v>
       </c>
-      <c r="O218">
+      <c r="Q218">
         <v>3.282</v>
       </c>
     </row>
-    <row r="219" spans="1:15">
+    <row r="219" spans="1:17">
       <c r="A219">
         <v>2.7233333333299998</v>
       </c>
@@ -9377,20 +9421,20 @@
       <c r="J219">
         <v>2.4260000000000002</v>
       </c>
-      <c r="L219">
-        <v>4.5</v>
-      </c>
-      <c r="M219" s="1">
+      <c r="N219">
+        <v>4.5</v>
+      </c>
+      <c r="O219" s="1">
         <v>2.3300000000000001E-6</v>
       </c>
-      <c r="N219" s="1">
+      <c r="P219" s="1">
         <v>2.2499999999999999E-7</v>
       </c>
-      <c r="O219">
+      <c r="Q219">
         <v>3.2839999999999998</v>
       </c>
     </row>
-    <row r="220" spans="1:15">
+    <row r="220" spans="1:17">
       <c r="A220">
         <v>2.7266666666699999</v>
       </c>
@@ -9418,20 +9462,20 @@
       <c r="J220">
         <v>2.4300000000000002</v>
       </c>
-      <c r="L220">
-        <v>4.5</v>
-      </c>
-      <c r="M220" s="1">
+      <c r="N220">
+        <v>4.5</v>
+      </c>
+      <c r="O220" s="1">
         <v>2.3300000000000001E-6</v>
       </c>
-      <c r="N220" s="1">
+      <c r="P220" s="1">
         <v>2.1400000000000001E-7</v>
       </c>
-      <c r="O220">
+      <c r="Q220">
         <v>3.286</v>
       </c>
     </row>
-    <row r="221" spans="1:15">
+    <row r="221" spans="1:17">
       <c r="A221">
         <v>2.73</v>
       </c>
@@ -9459,20 +9503,20 @@
       <c r="J221">
         <v>2.4319999999999999</v>
       </c>
-      <c r="L221">
-        <v>4.5</v>
-      </c>
-      <c r="M221" s="1">
+      <c r="N221">
+        <v>4.5</v>
+      </c>
+      <c r="O221" s="1">
         <v>2.3300000000000001E-6</v>
       </c>
-      <c r="N221" s="1">
+      <c r="P221" s="1">
         <v>2.23E-7</v>
       </c>
-      <c r="O221">
+      <c r="Q221">
         <v>3.29</v>
       </c>
     </row>
-    <row r="222" spans="1:15">
+    <row r="222" spans="1:17">
       <c r="A222">
         <v>2.7333333333300001</v>
       </c>
@@ -9500,20 +9544,20 @@
       <c r="J222">
         <v>2.4359999999999999</v>
       </c>
-      <c r="L222">
-        <v>4.5</v>
-      </c>
-      <c r="M222" s="1">
+      <c r="N222">
+        <v>4.5</v>
+      </c>
+      <c r="O222" s="1">
         <v>2.3199999999999998E-6</v>
       </c>
-      <c r="N222" s="1">
+      <c r="P222" s="1">
         <v>2.3099999999999999E-7</v>
       </c>
-      <c r="O222">
+      <c r="Q222">
         <v>3.2919999999999998</v>
       </c>
     </row>
-    <row r="223" spans="1:15">
+    <row r="223" spans="1:17">
       <c r="A223">
         <v>2.7366666666700001</v>
       </c>
@@ -9541,20 +9585,20 @@
       <c r="J223">
         <v>2.4380000000000002</v>
       </c>
-      <c r="L223">
-        <v>4.5</v>
-      </c>
-      <c r="M223" s="1">
+      <c r="N223">
+        <v>4.5</v>
+      </c>
+      <c r="O223" s="1">
         <v>2.3199999999999998E-6</v>
       </c>
-      <c r="N223" s="1">
+      <c r="P223" s="1">
         <v>2.2000000000000001E-7</v>
       </c>
-      <c r="O223">
+      <c r="Q223">
         <v>3.2959999999999998</v>
       </c>
     </row>
-    <row r="224" spans="1:15">
+    <row r="224" spans="1:17">
       <c r="A224">
         <v>2.74</v>
       </c>
@@ -9582,20 +9626,20 @@
       <c r="J224">
         <v>2.44</v>
       </c>
-      <c r="L224">
-        <v>4.5</v>
-      </c>
-      <c r="M224" s="1">
+      <c r="N224">
+        <v>4.5</v>
+      </c>
+      <c r="O224" s="1">
         <v>2.3199999999999998E-6</v>
       </c>
-      <c r="N224" s="1">
+      <c r="P224" s="1">
         <v>2.2600000000000001E-7</v>
       </c>
-      <c r="O224">
+      <c r="Q224">
         <v>3.298</v>
       </c>
     </row>
-    <row r="225" spans="1:15">
+    <row r="225" spans="1:17">
       <c r="A225">
         <v>2.7433333333299998</v>
       </c>
@@ -9623,20 +9667,20 @@
       <c r="J225">
         <v>2.444</v>
       </c>
-      <c r="L225">
-        <v>4.5</v>
-      </c>
-      <c r="M225" s="1">
+      <c r="N225">
+        <v>4.5</v>
+      </c>
+      <c r="O225" s="1">
         <v>2.3300000000000001E-6</v>
       </c>
-      <c r="N225" s="1">
+      <c r="P225" s="1">
         <v>2.1799999999999999E-7</v>
       </c>
-      <c r="O225">
+      <c r="Q225">
         <v>3.3</v>
       </c>
     </row>
-    <row r="226" spans="1:15">
+    <row r="226" spans="1:17">
       <c r="A226">
         <v>2.7466666666699999</v>
       </c>
@@ -9664,20 +9708,20 @@
       <c r="J226">
         <v>2.4460000000000002</v>
       </c>
-      <c r="L226">
-        <v>4.5</v>
-      </c>
-      <c r="M226" s="1">
+      <c r="N226">
+        <v>4.5</v>
+      </c>
+      <c r="O226" s="1">
         <v>2.3099999999999999E-6</v>
       </c>
-      <c r="N226" s="1">
+      <c r="P226" s="1">
         <v>2.1899999999999999E-7</v>
       </c>
-      <c r="O226">
+      <c r="Q226">
         <v>3.3039999999999998</v>
       </c>
     </row>
-    <row r="227" spans="1:15">
+    <row r="227" spans="1:17">
       <c r="A227">
         <v>2.75</v>
       </c>
@@ -9705,20 +9749,20 @@
       <c r="J227">
         <v>2.4500000000000002</v>
       </c>
-      <c r="L227">
-        <v>4.5</v>
-      </c>
-      <c r="M227" s="1">
+      <c r="N227">
+        <v>4.5</v>
+      </c>
+      <c r="O227" s="1">
         <v>2.3099999999999999E-6</v>
       </c>
-      <c r="N227" s="1">
+      <c r="P227" s="1">
         <v>2.2399999999999999E-7</v>
       </c>
-      <c r="O227">
+      <c r="Q227">
         <v>3.306</v>
       </c>
     </row>
-    <row r="228" spans="1:15">
+    <row r="228" spans="1:17">
       <c r="A228">
         <v>2.7533333333300001</v>
       </c>
@@ -9746,20 +9790,20 @@
       <c r="J228">
         <v>2.452</v>
       </c>
-      <c r="L228">
-        <v>4.5</v>
-      </c>
-      <c r="M228" s="1">
+      <c r="N228">
+        <v>4.5</v>
+      </c>
+      <c r="O228" s="1">
         <v>2.2900000000000001E-6</v>
       </c>
-      <c r="N228" s="1">
+      <c r="P228" s="1">
         <v>2.2399999999999999E-7</v>
       </c>
-      <c r="O228">
+      <c r="Q228">
         <v>3.3079999999999998</v>
       </c>
     </row>
-    <row r="229" spans="1:15">
+    <row r="229" spans="1:17">
       <c r="A229">
         <v>2.7566666666700002</v>
       </c>
@@ -9787,20 +9831,20 @@
       <c r="J229">
         <v>2.4540000000000002</v>
       </c>
-      <c r="L229">
-        <v>4.5</v>
-      </c>
-      <c r="M229" s="1">
+      <c r="N229">
+        <v>4.5</v>
+      </c>
+      <c r="O229" s="1">
         <v>2.3E-6</v>
       </c>
-      <c r="N229" s="1">
+      <c r="P229" s="1">
         <v>2.22E-7</v>
       </c>
-      <c r="O229">
+      <c r="Q229">
         <v>3.3119999999999998</v>
       </c>
     </row>
-    <row r="230" spans="1:15">
+    <row r="230" spans="1:17">
       <c r="A230">
         <v>2.76</v>
       </c>
@@ -9828,20 +9872,20 @@
       <c r="J230">
         <v>2.4580000000000002</v>
       </c>
-      <c r="L230">
-        <v>4.5</v>
-      </c>
-      <c r="M230" s="1">
+      <c r="N230">
+        <v>4.5</v>
+      </c>
+      <c r="O230" s="1">
         <v>2.2900000000000001E-6</v>
       </c>
-      <c r="N230" s="1">
+      <c r="P230" s="1">
         <v>2.1899999999999999E-7</v>
       </c>
-      <c r="O230">
+      <c r="Q230">
         <v>3.3140000000000001</v>
       </c>
     </row>
-    <row r="231" spans="1:15">
+    <row r="231" spans="1:17">
       <c r="A231">
         <v>2.7633333333299999</v>
       </c>
@@ -9869,20 +9913,20 @@
       <c r="J231">
         <v>2.46</v>
       </c>
-      <c r="L231">
-        <v>4.5</v>
-      </c>
-      <c r="M231" s="1">
+      <c r="N231">
+        <v>4.5</v>
+      </c>
+      <c r="O231" s="1">
         <v>2.3E-6</v>
       </c>
-      <c r="N231" s="1">
+      <c r="P231" s="1">
         <v>2.23E-7</v>
       </c>
-      <c r="O231">
+      <c r="Q231">
         <v>3.3159999999999998</v>
       </c>
     </row>
-    <row r="232" spans="1:15">
+    <row r="232" spans="1:17">
       <c r="A232">
         <v>2.7666666666699999</v>
       </c>
@@ -9910,20 +9954,20 @@
       <c r="J232">
         <v>2.4620000000000002</v>
       </c>
-      <c r="L232">
-        <v>4.5</v>
-      </c>
-      <c r="M232" s="1">
+      <c r="N232">
+        <v>4.5</v>
+      </c>
+      <c r="O232" s="1">
         <v>2.2900000000000001E-6</v>
       </c>
-      <c r="N232" s="1">
+      <c r="P232" s="1">
         <v>2.23E-7</v>
       </c>
-      <c r="O232">
+      <c r="Q232">
         <v>3.32</v>
       </c>
     </row>
-    <row r="233" spans="1:15">
+    <row r="233" spans="1:17">
       <c r="A233">
         <v>2.77</v>
       </c>
@@ -9951,20 +9995,20 @@
       <c r="J233">
         <v>2.4660000000000002</v>
       </c>
-      <c r="L233">
-        <v>4.5</v>
-      </c>
-      <c r="M233" s="1">
+      <c r="N233">
+        <v>4.5</v>
+      </c>
+      <c r="O233" s="1">
         <v>2.2900000000000001E-6</v>
       </c>
-      <c r="N233" s="1">
+      <c r="P233" s="1">
         <v>2.17E-7</v>
       </c>
-      <c r="O233">
+      <c r="Q233">
         <v>3.3220000000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:15">
+    <row r="234" spans="1:17">
       <c r="A234">
         <v>2.7733333333300001</v>
       </c>
@@ -9992,20 +10036,20 @@
       <c r="J234">
         <v>2.468</v>
       </c>
-      <c r="L234">
-        <v>4.5</v>
-      </c>
-      <c r="M234" s="1">
+      <c r="N234">
+        <v>4.5</v>
+      </c>
+      <c r="O234" s="1">
         <v>2.3E-6</v>
       </c>
-      <c r="N234" s="1">
+      <c r="P234" s="1">
         <v>2.2100000000000001E-7</v>
       </c>
-      <c r="O234">
+      <c r="Q234">
         <v>3.3239999999999998</v>
       </c>
     </row>
-    <row r="235" spans="1:15">
+    <row r="235" spans="1:17">
       <c r="A235">
         <v>2.7766666666700002</v>
       </c>
@@ -10033,20 +10077,20 @@
       <c r="J235">
         <v>2.4700000000000002</v>
       </c>
-      <c r="L235">
-        <v>4.5</v>
-      </c>
-      <c r="M235" s="1">
+      <c r="N235">
+        <v>4.5</v>
+      </c>
+      <c r="O235" s="1">
         <v>2.2900000000000001E-6</v>
       </c>
-      <c r="N235" s="1">
+      <c r="P235" s="1">
         <v>2.2000000000000001E-7</v>
       </c>
-      <c r="O235">
+      <c r="Q235">
         <v>3.3279999999999998</v>
       </c>
     </row>
-    <row r="236" spans="1:15">
+    <row r="236" spans="1:17">
       <c r="A236">
         <v>2.78</v>
       </c>
@@ -10074,20 +10118,20 @@
       <c r="J236">
         <v>2.4740000000000002</v>
       </c>
-      <c r="L236">
-        <v>4.5</v>
-      </c>
-      <c r="M236" s="1">
+      <c r="N236">
+        <v>4.5</v>
+      </c>
+      <c r="O236" s="1">
         <v>2.2900000000000001E-6</v>
       </c>
-      <c r="N236" s="1">
+      <c r="P236" s="1">
         <v>2.16E-7</v>
       </c>
-      <c r="O236">
+      <c r="Q236">
         <v>3.33</v>
       </c>
     </row>
-    <row r="237" spans="1:15">
+    <row r="237" spans="1:17">
       <c r="A237">
         <v>2.7833333333299999</v>
       </c>
@@ -10115,20 +10159,20 @@
       <c r="J237">
         <v>2.476</v>
       </c>
-      <c r="L237">
-        <v>4.5</v>
-      </c>
-      <c r="M237" s="1">
+      <c r="N237">
+        <v>4.5</v>
+      </c>
+      <c r="O237" s="1">
         <v>2.2900000000000001E-6</v>
       </c>
-      <c r="N237" s="1">
+      <c r="P237" s="1">
         <v>2.17E-7</v>
       </c>
-      <c r="O237">
+      <c r="Q237">
         <v>3.3319999999999999</v>
       </c>
     </row>
-    <row r="238" spans="1:15">
+    <row r="238" spans="1:17">
       <c r="A238">
         <v>2.78666666667</v>
       </c>
@@ -10156,20 +10200,20 @@
       <c r="J238">
         <v>2.48</v>
       </c>
-      <c r="L238">
-        <v>4.5</v>
-      </c>
-      <c r="M238" s="1">
+      <c r="N238">
+        <v>4.5</v>
+      </c>
+      <c r="O238" s="1">
         <v>2.2900000000000001E-6</v>
       </c>
-      <c r="N238" s="1">
+      <c r="P238" s="1">
         <v>2.1899999999999999E-7</v>
       </c>
-      <c r="O238">
+      <c r="Q238">
         <v>3.3359999999999999</v>
       </c>
     </row>
-    <row r="239" spans="1:15">
+    <row r="239" spans="1:17">
       <c r="A239">
         <v>2.79</v>
       </c>
@@ -10197,20 +10241,20 @@
       <c r="J239">
         <v>2.4820000000000002</v>
       </c>
-      <c r="L239">
-        <v>4.5</v>
-      </c>
-      <c r="M239" s="1">
+      <c r="N239">
+        <v>4.5</v>
+      </c>
+      <c r="O239" s="1">
         <v>2.2900000000000001E-6</v>
       </c>
-      <c r="N239" s="1">
+      <c r="P239" s="1">
         <v>2.2000000000000001E-7</v>
       </c>
-      <c r="O239">
+      <c r="Q239">
         <v>3.3380000000000001</v>
       </c>
     </row>
-    <row r="240" spans="1:15">
+    <row r="240" spans="1:17">
       <c r="A240">
         <v>2.7933333333300001</v>
       </c>
@@ -10238,20 +10282,20 @@
       <c r="J240">
         <v>2.484</v>
       </c>
-      <c r="L240">
-        <v>4.5</v>
-      </c>
-      <c r="M240" s="1">
+      <c r="N240">
+        <v>4.5</v>
+      </c>
+      <c r="O240" s="1">
         <v>2.2800000000000002E-6</v>
       </c>
-      <c r="N240" s="1">
+      <c r="P240" s="1">
         <v>2.17E-7</v>
       </c>
-      <c r="O240">
+      <c r="Q240">
         <v>3.34</v>
       </c>
     </row>
-    <row r="241" spans="1:15">
+    <row r="241" spans="1:17">
       <c r="A241">
         <v>2.7966666666700002</v>
       </c>
@@ -10279,20 +10323,20 @@
       <c r="J241">
         <v>2.488</v>
       </c>
-      <c r="L241">
-        <v>4.5</v>
-      </c>
-      <c r="M241" s="1">
+      <c r="N241">
+        <v>4.5</v>
+      </c>
+      <c r="O241" s="1">
         <v>2.2800000000000002E-6</v>
       </c>
-      <c r="N241" s="1">
+      <c r="P241" s="1">
         <v>2.1799999999999999E-7</v>
       </c>
-      <c r="O241">
+      <c r="Q241">
         <v>3.3439999999999999</v>
       </c>
     </row>
-    <row r="242" spans="1:15">
+    <row r="242" spans="1:17">
       <c r="A242">
         <v>2.8</v>
       </c>
@@ -10320,20 +10364,20 @@
       <c r="J242">
         <v>2.4900000000000002</v>
       </c>
-      <c r="L242">
-        <v>4.5</v>
-      </c>
-      <c r="M242" s="1">
+      <c r="N242">
+        <v>4.5</v>
+      </c>
+      <c r="O242" s="1">
         <v>2.2800000000000002E-6</v>
       </c>
-      <c r="N242" s="1">
+      <c r="P242" s="1">
         <v>2.16E-7</v>
       </c>
-      <c r="O242">
+      <c r="Q242">
         <v>3.3479999999999999</v>
       </c>
     </row>
-    <row r="243" spans="1:15">
+    <row r="243" spans="1:17">
       <c r="A243">
         <v>2.8033333333299999</v>
       </c>
@@ -10361,20 +10405,20 @@
       <c r="J243">
         <v>2.492</v>
       </c>
-      <c r="L243">
-        <v>4.5</v>
-      </c>
-      <c r="M243" s="1">
+      <c r="N243">
+        <v>4.5</v>
+      </c>
+      <c r="O243" s="1">
         <v>2.2699999999999999E-6</v>
       </c>
-      <c r="N243" s="1">
+      <c r="P243" s="1">
         <v>2.1500000000000001E-7</v>
       </c>
-      <c r="O243">
+      <c r="Q243">
         <v>3.35</v>
       </c>
     </row>
-    <row r="244" spans="1:15">
+    <row r="244" spans="1:17">
       <c r="A244">
         <v>2.80666666667</v>
       </c>
@@ -10402,20 +10446,20 @@
       <c r="J244">
         <v>2.496</v>
       </c>
-      <c r="L244">
-        <v>4.5</v>
-      </c>
-      <c r="M244" s="1">
+      <c r="N244">
+        <v>4.5</v>
+      </c>
+      <c r="O244" s="1">
         <v>2.2699999999999999E-6</v>
       </c>
-      <c r="N244" s="1">
+      <c r="P244" s="1">
         <v>2.1899999999999999E-7</v>
       </c>
-      <c r="O244">
+      <c r="Q244">
         <v>3.3540000000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:15">
+    <row r="245" spans="1:17">
       <c r="A245">
         <v>2.81</v>
       </c>
@@ -10443,20 +10487,20 @@
       <c r="J245">
         <v>2.4980000000000002</v>
       </c>
-      <c r="L245">
-        <v>4.5</v>
-      </c>
-      <c r="M245" s="1">
+      <c r="N245">
+        <v>4.5</v>
+      </c>
+      <c r="O245" s="1">
         <v>2.2699999999999999E-6</v>
       </c>
-      <c r="N245" s="1">
+      <c r="P245" s="1">
         <v>2.23E-7</v>
       </c>
-      <c r="O245">
+      <c r="Q245">
         <v>3.3559999999999999</v>
       </c>
     </row>
-    <row r="246" spans="1:15">
+    <row r="246" spans="1:17">
       <c r="A246">
         <v>2.8133333333300001</v>
       </c>
@@ -10484,20 +10528,20 @@
       <c r="J246">
         <v>2.5</v>
       </c>
-      <c r="L246">
-        <v>4.5</v>
-      </c>
-      <c r="M246" s="1">
+      <c r="N246">
+        <v>4.5</v>
+      </c>
+      <c r="O246" s="1">
         <v>2.2800000000000002E-6</v>
       </c>
-      <c r="N246" s="1">
+      <c r="P246" s="1">
         <v>2.22E-7</v>
       </c>
-      <c r="O246">
+      <c r="Q246">
         <v>3.3580000000000001</v>
       </c>
     </row>
-    <row r="247" spans="1:15">
+    <row r="247" spans="1:17">
       <c r="A247">
         <v>2.8166666666700002</v>
       </c>
@@ -10525,20 +10569,20 @@
       <c r="J247">
         <v>2.504</v>
       </c>
-      <c r="L247">
-        <v>4.5</v>
-      </c>
-      <c r="M247" s="1">
+      <c r="N247">
+        <v>4.5</v>
+      </c>
+      <c r="O247" s="1">
         <v>2.2800000000000002E-6</v>
       </c>
-      <c r="N247" s="1">
+      <c r="P247" s="1">
         <v>2.2000000000000001E-7</v>
       </c>
-      <c r="O247">
+      <c r="Q247">
         <v>3.3620000000000001</v>
       </c>
     </row>
-    <row r="248" spans="1:15">
+    <row r="248" spans="1:17">
       <c r="A248">
         <v>2.82</v>
       </c>
@@ -10566,20 +10610,20 @@
       <c r="J248">
         <v>2.5059999999999998</v>
       </c>
-      <c r="L248">
-        <v>4.5</v>
-      </c>
-      <c r="M248" s="1">
+      <c r="N248">
+        <v>4.5</v>
+      </c>
+      <c r="O248" s="1">
         <v>2.2699999999999999E-6</v>
       </c>
-      <c r="N248" s="1">
+      <c r="P248" s="1">
         <v>2.2700000000000001E-7</v>
       </c>
-      <c r="O248">
+      <c r="Q248">
         <v>3.3639999999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:15">
+    <row r="249" spans="1:17">
       <c r="A249">
         <v>2.8233333333299999</v>
       </c>
@@ -10607,20 +10651,20 @@
       <c r="J249">
         <v>2.508</v>
       </c>
-      <c r="L249">
-        <v>4.5</v>
-      </c>
-      <c r="M249" s="1">
+      <c r="N249">
+        <v>4.5</v>
+      </c>
+      <c r="O249" s="1">
         <v>2.2699999999999999E-6</v>
       </c>
-      <c r="N249" s="1">
+      <c r="P249" s="1">
         <v>2.2000000000000001E-7</v>
       </c>
-      <c r="O249">
+      <c r="Q249">
         <v>3.3660000000000001</v>
       </c>
     </row>
-    <row r="250" spans="1:15">
+    <row r="250" spans="1:17">
       <c r="A250">
         <v>2.82666666667</v>
       </c>
@@ -10648,20 +10692,20 @@
       <c r="J250">
         <v>2.512</v>
       </c>
-      <c r="L250">
-        <v>4.5</v>
-      </c>
-      <c r="M250" s="1">
+      <c r="N250">
+        <v>4.5</v>
+      </c>
+      <c r="O250" s="1">
         <v>2.2699999999999999E-6</v>
       </c>
-      <c r="N250" s="1">
+      <c r="P250" s="1">
         <v>2.1500000000000001E-7</v>
       </c>
-      <c r="O250">
+      <c r="Q250">
         <v>3.37</v>
       </c>
     </row>
-    <row r="251" spans="1:15">
+    <row r="251" spans="1:17">
       <c r="A251">
         <v>2.83</v>
       </c>
@@ -10689,20 +10733,20 @@
       <c r="J251">
         <v>2.516</v>
       </c>
-      <c r="L251">
-        <v>4.5</v>
-      </c>
-      <c r="M251" s="1">
+      <c r="N251">
+        <v>4.5</v>
+      </c>
+      <c r="O251" s="1">
         <v>2.2699999999999999E-6</v>
       </c>
-      <c r="N251" s="1">
+      <c r="P251" s="1">
         <v>2.2600000000000001E-7</v>
       </c>
-      <c r="O251">
+      <c r="Q251">
         <v>3.3719999999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:15">
+    <row r="252" spans="1:17">
       <c r="A252">
         <v>2.8333333333300001</v>
       </c>
@@ -10730,20 +10774,20 @@
       <c r="J252">
         <v>2.516</v>
       </c>
-      <c r="L252">
-        <v>4.5</v>
-      </c>
-      <c r="M252" s="1">
+      <c r="N252">
+        <v>4.5</v>
+      </c>
+      <c r="O252" s="1">
         <v>2.26E-6</v>
       </c>
-      <c r="N252" s="1">
+      <c r="P252" s="1">
         <v>2.23E-7</v>
       </c>
-      <c r="O252">
+      <c r="Q252">
         <v>3.3740000000000001</v>
       </c>
     </row>
-    <row r="253" spans="1:15">
+    <row r="253" spans="1:17">
       <c r="A253">
         <v>2.8366666666699998</v>
       </c>
@@ -10771,20 +10815,20 @@
       <c r="J253">
         <v>2.52</v>
       </c>
-      <c r="L253">
-        <v>4.5</v>
-      </c>
-      <c r="M253" s="1">
+      <c r="N253">
+        <v>4.5</v>
+      </c>
+      <c r="O253" s="1">
         <v>2.26E-6</v>
       </c>
-      <c r="N253" s="1">
+      <c r="P253" s="1">
         <v>2.17E-7</v>
       </c>
-      <c r="O253">
+      <c r="Q253">
         <v>3.3780000000000001</v>
       </c>
     </row>
-    <row r="254" spans="1:15">
+    <row r="254" spans="1:17">
       <c r="A254">
         <v>2.84</v>
       </c>
@@ -10812,20 +10856,20 @@
       <c r="J254">
         <v>2.5219999999999998</v>
       </c>
-      <c r="L254">
-        <v>4.5</v>
-      </c>
-      <c r="M254" s="1">
+      <c r="N254">
+        <v>4.5</v>
+      </c>
+      <c r="O254" s="1">
         <v>2.26E-6</v>
       </c>
-      <c r="N254" s="1">
+      <c r="P254" s="1">
         <v>2.1799999999999999E-7</v>
       </c>
-      <c r="O254">
+      <c r="Q254">
         <v>3.38</v>
       </c>
     </row>
-    <row r="255" spans="1:15">
+    <row r="255" spans="1:17">
       <c r="A255">
         <v>2.8433333333299999</v>
       </c>
@@ -10853,20 +10897,20 @@
       <c r="J255">
         <v>2.5259999999999998</v>
       </c>
-      <c r="L255">
-        <v>4.5</v>
-      </c>
-      <c r="M255" s="1">
+      <c r="N255">
+        <v>4.5</v>
+      </c>
+      <c r="O255" s="1">
         <v>2.2500000000000001E-6</v>
       </c>
-      <c r="N255" s="1">
+      <c r="P255" s="1">
         <v>2.1899999999999999E-7</v>
       </c>
-      <c r="O255">
+      <c r="Q255">
         <v>3.3820000000000001</v>
       </c>
     </row>
-    <row r="256" spans="1:15">
+    <row r="256" spans="1:17">
       <c r="A256">
         <v>2.84666666667</v>
       </c>
@@ -10894,20 +10938,20 @@
       <c r="J256">
         <v>2.528</v>
       </c>
-      <c r="L256">
-        <v>4.5</v>
-      </c>
-      <c r="M256" s="1">
+      <c r="N256">
+        <v>4.5</v>
+      </c>
+      <c r="O256" s="1">
         <v>2.26E-6</v>
       </c>
-      <c r="N256" s="1">
+      <c r="P256" s="1">
         <v>2.1899999999999999E-7</v>
       </c>
-      <c r="O256">
+      <c r="Q256">
         <v>3.3879999999999999</v>
       </c>
     </row>
-    <row r="257" spans="1:15">
+    <row r="257" spans="1:17">
       <c r="A257">
         <v>2.85</v>
       </c>
@@ -10935,20 +10979,20 @@
       <c r="J257">
         <v>2.5299999999999998</v>
       </c>
-      <c r="L257">
-        <v>4.5</v>
-      </c>
-      <c r="M257" s="1">
+      <c r="N257">
+        <v>4.5</v>
+      </c>
+      <c r="O257" s="1">
         <v>2.26E-6</v>
       </c>
-      <c r="N257" s="1">
+      <c r="P257" s="1">
         <v>2.1500000000000001E-7</v>
       </c>
-      <c r="O257">
+      <c r="Q257">
         <v>3.39</v>
       </c>
     </row>
-    <row r="258" spans="1:15">
+    <row r="258" spans="1:17">
       <c r="A258">
         <v>2.8533333333300002</v>
       </c>
@@ -10976,20 +11020,20 @@
       <c r="J258">
         <v>2.532</v>
       </c>
-      <c r="L258">
-        <v>4.5</v>
-      </c>
-      <c r="M258" s="1">
+      <c r="N258">
+        <v>4.5</v>
+      </c>
+      <c r="O258" s="1">
         <v>2.26E-6</v>
       </c>
-      <c r="N258" s="1">
+      <c r="P258" s="1">
         <v>2.22E-7</v>
       </c>
-      <c r="O258">
+      <c r="Q258">
         <v>3.3919999999999999</v>
       </c>
     </row>
-    <row r="259" spans="1:15">
+    <row r="259" spans="1:17">
       <c r="A259">
         <v>2.8566666666699998</v>
       </c>
@@ -11017,20 +11061,20 @@
       <c r="J259">
         <v>2.536</v>
       </c>
-      <c r="L259">
-        <v>4.5</v>
-      </c>
-      <c r="M259" s="1">
+      <c r="N259">
+        <v>4.5</v>
+      </c>
+      <c r="O259" s="1">
         <v>2.26E-6</v>
       </c>
-      <c r="N259" s="1">
+      <c r="P259" s="1">
         <v>2.1899999999999999E-7</v>
       </c>
-      <c r="O259">
+      <c r="Q259">
         <v>3.3959999999999999</v>
       </c>
     </row>
-    <row r="260" spans="1:15">
+    <row r="260" spans="1:17">
       <c r="A260">
         <v>2.86</v>
       </c>
@@ -11058,20 +11102,20 @@
       <c r="J260">
         <v>2.54</v>
       </c>
-      <c r="L260">
-        <v>4.5</v>
-      </c>
-      <c r="M260" s="1">
+      <c r="N260">
+        <v>4.5</v>
+      </c>
+      <c r="O260" s="1">
         <v>2.26E-6</v>
       </c>
-      <c r="N260" s="1">
+      <c r="P260" s="1">
         <v>2.17E-7</v>
       </c>
-      <c r="O260">
+      <c r="Q260">
         <v>3.3980000000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:15">
+    <row r="261" spans="1:17">
       <c r="A261">
         <v>2.86333333333</v>
       </c>
@@ -11099,20 +11143,20 @@
       <c r="J261">
         <v>2.5419999999999998</v>
       </c>
-      <c r="L261">
-        <v>4.5</v>
-      </c>
-      <c r="M261" s="1">
+      <c r="N261">
+        <v>4.5</v>
+      </c>
+      <c r="O261" s="1">
         <v>2.2500000000000001E-6</v>
       </c>
-      <c r="N261" s="1">
+      <c r="P261" s="1">
         <v>2.2399999999999999E-7</v>
       </c>
-      <c r="O261">
+      <c r="Q261">
         <v>3.4</v>
       </c>
     </row>
-    <row r="262" spans="1:15">
+    <row r="262" spans="1:17">
       <c r="A262">
         <v>2.86666666667</v>
       </c>
@@ -11140,20 +11184,20 @@
       <c r="J262">
         <v>2.544</v>
       </c>
-      <c r="L262">
-        <v>4.5</v>
-      </c>
-      <c r="M262" s="1">
+      <c r="N262">
+        <v>4.5</v>
+      </c>
+      <c r="O262" s="1">
         <v>2.2500000000000001E-6</v>
       </c>
-      <c r="N262" s="1">
+      <c r="P262" s="1">
         <v>2.1799999999999999E-7</v>
       </c>
-      <c r="O262">
+      <c r="Q262">
         <v>3.4039999999999999</v>
       </c>
     </row>
-    <row r="263" spans="1:15">
+    <row r="263" spans="1:17">
       <c r="A263">
         <v>2.87</v>
       </c>
@@ -11181,20 +11225,20 @@
       <c r="J263">
         <v>2.548</v>
       </c>
-      <c r="L263">
-        <v>4.5</v>
-      </c>
-      <c r="M263" s="1">
+      <c r="N263">
+        <v>4.5</v>
+      </c>
+      <c r="O263" s="1">
         <v>2.2500000000000001E-6</v>
       </c>
-      <c r="N263" s="1">
+      <c r="P263" s="1">
         <v>2.17E-7</v>
       </c>
-      <c r="O263">
+      <c r="Q263">
         <v>3.4060000000000001</v>
       </c>
     </row>
-    <row r="264" spans="1:15">
+    <row r="264" spans="1:17">
       <c r="A264">
         <v>2.8733333333300002</v>
       </c>
@@ -11222,20 +11266,20 @@
       <c r="J264">
         <v>2.5499999999999998</v>
       </c>
-      <c r="L264">
-        <v>4.5</v>
-      </c>
-      <c r="M264" s="1">
+      <c r="N264">
+        <v>4.5</v>
+      </c>
+      <c r="O264" s="1">
         <v>2.2400000000000002E-6</v>
       </c>
-      <c r="N264" s="1">
+      <c r="P264" s="1">
         <v>2.2000000000000001E-7</v>
       </c>
-      <c r="O264">
+      <c r="Q264">
         <v>3.4079999999999999</v>
       </c>
     </row>
-    <row r="265" spans="1:15">
+    <row r="265" spans="1:17">
       <c r="A265">
         <v>2.8766666666699998</v>
       </c>
@@ -11263,20 +11307,20 @@
       <c r="J265">
         <v>2.552</v>
       </c>
-      <c r="L265">
-        <v>4.5</v>
-      </c>
-      <c r="M265" s="1">
+      <c r="N265">
+        <v>4.5</v>
+      </c>
+      <c r="O265" s="1">
         <v>2.2500000000000001E-6</v>
       </c>
-      <c r="N265" s="1">
+      <c r="P265" s="1">
         <v>2.2700000000000001E-7</v>
       </c>
-      <c r="O265">
+      <c r="Q265">
         <v>3.4119999999999999</v>
       </c>
     </row>
-    <row r="266" spans="1:15">
+    <row r="266" spans="1:17">
       <c r="A266">
         <v>2.88</v>
       </c>
@@ -11304,20 +11348,20 @@
       <c r="J266">
         <v>2.556</v>
       </c>
-      <c r="L266">
-        <v>4.5</v>
-      </c>
-      <c r="M266" s="1">
+      <c r="N266">
+        <v>4.5</v>
+      </c>
+      <c r="O266" s="1">
         <v>2.2500000000000001E-6</v>
       </c>
-      <c r="N266" s="1">
+      <c r="P266" s="1">
         <v>2.22E-7</v>
       </c>
-      <c r="O266">
+      <c r="Q266">
         <v>3.4140000000000001</v>
       </c>
     </row>
-    <row r="267" spans="1:15">
+    <row r="267" spans="1:17">
       <c r="A267">
         <v>2.88333333333</v>
       </c>
@@ -11345,20 +11389,20 @@
       <c r="J267">
         <v>2.5579999999999998</v>
       </c>
-      <c r="L267">
-        <v>4.5</v>
-      </c>
-      <c r="M267" s="1">
+      <c r="N267">
+        <v>4.5</v>
+      </c>
+      <c r="O267" s="1">
         <v>2.2400000000000002E-6</v>
       </c>
-      <c r="N267" s="1">
+      <c r="P267" s="1">
         <v>2.2399999999999999E-7</v>
       </c>
-      <c r="O267">
+      <c r="Q267">
         <v>3.4159999999999999</v>
       </c>
     </row>
-    <row r="268" spans="1:15">
+    <row r="268" spans="1:17">
       <c r="A268">
         <v>2.88666666667</v>
       </c>
@@ -11386,20 +11430,20 @@
       <c r="J268">
         <v>2.56</v>
       </c>
-      <c r="L268">
-        <v>4.5</v>
-      </c>
-      <c r="M268" s="1">
+      <c r="N268">
+        <v>4.5</v>
+      </c>
+      <c r="O268" s="1">
         <v>2.2400000000000002E-6</v>
       </c>
-      <c r="N268" s="1">
+      <c r="P268" s="1">
         <v>2.2399999999999999E-7</v>
       </c>
-      <c r="O268">
+      <c r="Q268">
         <v>3.42</v>
       </c>
     </row>
-    <row r="269" spans="1:15">
+    <row r="269" spans="1:17">
       <c r="A269">
         <v>2.89</v>
       </c>
@@ -11427,20 +11471,20 @@
       <c r="J269">
         <v>2.5640000000000001</v>
       </c>
-      <c r="L269">
-        <v>4.5</v>
-      </c>
-      <c r="M269" s="1">
+      <c r="N269">
+        <v>4.5</v>
+      </c>
+      <c r="O269" s="1">
         <v>2.2400000000000002E-6</v>
       </c>
-      <c r="N269" s="1">
+      <c r="P269" s="1">
         <v>2.22E-7</v>
       </c>
-      <c r="O269">
+      <c r="Q269">
         <v>3.4239999999999999</v>
       </c>
     </row>
-    <row r="270" spans="1:15">
+    <row r="270" spans="1:17">
       <c r="A270">
         <v>2.8933333333300002</v>
       </c>
@@ -11468,20 +11512,20 @@
       <c r="J270">
         <v>2.5659999999999998</v>
       </c>
-      <c r="L270">
-        <v>4.5</v>
-      </c>
-      <c r="M270" s="1">
+      <c r="N270">
+        <v>4.5</v>
+      </c>
+      <c r="O270" s="1">
         <v>2.2299999999999998E-6</v>
       </c>
-      <c r="N270" s="1">
+      <c r="P270" s="1">
         <v>2.2000000000000001E-7</v>
       </c>
-      <c r="O270">
+      <c r="Q270">
         <v>3.4260000000000002</v>
       </c>
     </row>
-    <row r="271" spans="1:15">
+    <row r="271" spans="1:17">
       <c r="A271">
         <v>2.8966666666699998</v>
       </c>
@@ -11509,20 +11553,20 @@
       <c r="J271">
         <v>2.5680000000000001</v>
       </c>
-      <c r="L271">
-        <v>4.5</v>
-      </c>
-      <c r="M271" s="1">
+      <c r="N271">
+        <v>4.5</v>
+      </c>
+      <c r="O271" s="1">
         <v>2.2400000000000002E-6</v>
       </c>
-      <c r="N271" s="1">
+      <c r="P271" s="1">
         <v>2.2000000000000001E-7</v>
       </c>
-      <c r="O271">
+      <c r="Q271">
         <v>3.43</v>
       </c>
     </row>
-    <row r="272" spans="1:15">
+    <row r="272" spans="1:17">
       <c r="A272">
         <v>2.9</v>
       </c>
@@ -11550,20 +11594,20 @@
       <c r="J272">
         <v>2.5720000000000001</v>
       </c>
-      <c r="L272">
-        <v>4.5</v>
-      </c>
-      <c r="M272" s="1">
+      <c r="N272">
+        <v>4.5</v>
+      </c>
+      <c r="O272" s="1">
         <v>2.2299999999999998E-6</v>
       </c>
-      <c r="N272" s="1">
+      <c r="P272" s="1">
         <v>2.2499999999999999E-7</v>
       </c>
-      <c r="O272">
+      <c r="Q272">
         <v>3.4319999999999999</v>
       </c>
     </row>
-    <row r="273" spans="1:15">
+    <row r="273" spans="1:17">
       <c r="A273">
         <v>2.90333333333</v>
       </c>
@@ -11591,20 +11635,20 @@
       <c r="J273">
         <v>2.5739999999999998</v>
       </c>
-      <c r="L273">
-        <v>4.5</v>
-      </c>
-      <c r="M273" s="1">
+      <c r="N273">
+        <v>4.5</v>
+      </c>
+      <c r="O273" s="1">
         <v>2.2400000000000002E-6</v>
       </c>
-      <c r="N273" s="1">
+      <c r="P273" s="1">
         <v>2.2499999999999999E-7</v>
       </c>
-      <c r="O273">
+      <c r="Q273">
         <v>3.4340000000000002</v>
       </c>
     </row>
-    <row r="274" spans="1:15">
+    <row r="274" spans="1:17">
       <c r="A274">
         <v>2.9066666666700001</v>
       </c>
@@ -11632,20 +11676,20 @@
       <c r="J274">
         <v>2.5760000000000001</v>
       </c>
-      <c r="L274">
-        <v>4.5</v>
-      </c>
-      <c r="M274" s="1">
+      <c r="N274">
+        <v>4.5</v>
+      </c>
+      <c r="O274" s="1">
         <v>2.2299999999999998E-6</v>
       </c>
-      <c r="N274" s="1">
+      <c r="P274" s="1">
         <v>2.2399999999999999E-7</v>
       </c>
-      <c r="O274">
+      <c r="Q274">
         <v>3.4380000000000002</v>
       </c>
     </row>
-    <row r="275" spans="1:15">
+    <row r="275" spans="1:17">
       <c r="A275">
         <v>2.91</v>
       </c>
@@ -11673,20 +11717,20 @@
       <c r="J275">
         <v>2.58</v>
       </c>
-      <c r="L275">
-        <v>4.5</v>
-      </c>
-      <c r="M275" s="1">
+      <c r="N275">
+        <v>4.5</v>
+      </c>
+      <c r="O275" s="1">
         <v>2.2299999999999998E-6</v>
       </c>
-      <c r="N275" s="1">
+      <c r="P275" s="1">
         <v>2.23E-7</v>
       </c>
-      <c r="O275">
+      <c r="Q275">
         <v>3.44</v>
       </c>
     </row>
-    <row r="276" spans="1:15">
+    <row r="276" spans="1:17">
       <c r="A276">
         <v>2.9133333333300002</v>
       </c>
@@ -11714,20 +11758,20 @@
       <c r="J276">
         <v>2.5819999999999999</v>
       </c>
-      <c r="L276">
-        <v>4.5</v>
-      </c>
-      <c r="M276" s="1">
+      <c r="N276">
+        <v>4.5</v>
+      </c>
+      <c r="O276" s="1">
         <v>2.2400000000000002E-6</v>
       </c>
-      <c r="N276" s="1">
+      <c r="P276" s="1">
         <v>2.1899999999999999E-7</v>
       </c>
-      <c r="O276">
+      <c r="Q276">
         <v>3.4420000000000002</v>
       </c>
     </row>
-    <row r="277" spans="1:15">
+    <row r="277" spans="1:17">
       <c r="A277">
         <v>2.9166666666699999</v>
       </c>
@@ -11755,20 +11799,20 @@
       <c r="J277">
         <v>2.5840000000000001</v>
       </c>
-      <c r="L277">
-        <v>4.5</v>
-      </c>
-      <c r="M277" s="1">
+      <c r="N277">
+        <v>4.5</v>
+      </c>
+      <c r="O277" s="1">
         <v>2.2299999999999998E-6</v>
       </c>
-      <c r="N277" s="1">
+      <c r="P277" s="1">
         <v>2.23E-7</v>
       </c>
-      <c r="O277">
+      <c r="Q277">
         <v>3.4460000000000002</v>
       </c>
     </row>
-    <row r="278" spans="1:15">
+    <row r="278" spans="1:17">
       <c r="A278">
         <v>2.92</v>
       </c>
@@ -11796,20 +11840,20 @@
       <c r="J278">
         <v>2.5880000000000001</v>
       </c>
-      <c r="L278">
-        <v>4.5</v>
-      </c>
-      <c r="M278" s="1">
+      <c r="N278">
+        <v>4.5</v>
+      </c>
+      <c r="O278" s="1">
         <v>2.2299999999999998E-6</v>
       </c>
-      <c r="N278" s="1">
+      <c r="P278" s="1">
         <v>2.2399999999999999E-7</v>
       </c>
-      <c r="O278">
+      <c r="Q278">
         <v>3.448</v>
       </c>
     </row>
-    <row r="279" spans="1:15">
+    <row r="279" spans="1:17">
       <c r="A279">
         <v>2.92333333333</v>
       </c>
@@ -11837,20 +11881,20 @@
       <c r="J279">
         <v>2.59</v>
       </c>
-      <c r="L279">
-        <v>4.5</v>
-      </c>
-      <c r="M279" s="1">
+      <c r="N279">
+        <v>4.5</v>
+      </c>
+      <c r="O279" s="1">
         <v>2.2299999999999998E-6</v>
       </c>
-      <c r="N279" s="1">
+      <c r="P279" s="1">
         <v>2.1799999999999999E-7</v>
       </c>
-      <c r="O279">
+      <c r="Q279">
         <v>3.45</v>
       </c>
     </row>
-    <row r="280" spans="1:15">
+    <row r="280" spans="1:17">
       <c r="A280">
         <v>2.9266666666700001</v>
       </c>
@@ -11878,20 +11922,20 @@
       <c r="J280">
         <v>2.5920000000000001</v>
       </c>
-      <c r="L280">
-        <v>4.5</v>
-      </c>
-      <c r="M280" s="1">
+      <c r="N280">
+        <v>4.5</v>
+      </c>
+      <c r="O280" s="1">
         <v>2.2299999999999998E-6</v>
       </c>
-      <c r="N280" s="1">
+      <c r="P280" s="1">
         <v>2.23E-7</v>
       </c>
-      <c r="O280">
+      <c r="Q280">
         <v>3.4540000000000002</v>
       </c>
     </row>
-    <row r="281" spans="1:15">
+    <row r="281" spans="1:17">
       <c r="A281">
         <v>2.93</v>
       </c>
@@ -11919,20 +11963,20 @@
       <c r="J281">
         <v>2.5960000000000001</v>
       </c>
-      <c r="L281">
-        <v>4.5</v>
-      </c>
-      <c r="M281" s="1">
+      <c r="N281">
+        <v>4.5</v>
+      </c>
+      <c r="O281" s="1">
         <v>2.2199999999999999E-6</v>
       </c>
-      <c r="N281" s="1">
+      <c r="P281" s="1">
         <v>2.2499999999999999E-7</v>
       </c>
-      <c r="O281">
+      <c r="Q281">
         <v>3.456</v>
       </c>
     </row>
-    <row r="282" spans="1:15">
+    <row r="282" spans="1:17">
       <c r="A282">
         <v>2.9333333333299998</v>
       </c>
@@ -11960,20 +12004,20 @@
       <c r="J282">
         <v>2.5979999999999999</v>
       </c>
-      <c r="L282">
-        <v>4.5</v>
-      </c>
-      <c r="M282" s="1">
+      <c r="N282">
+        <v>4.5</v>
+      </c>
+      <c r="O282" s="1">
         <v>2.2199999999999999E-6</v>
       </c>
-      <c r="N282" s="1">
+      <c r="P282" s="1">
         <v>2.1899999999999999E-7</v>
       </c>
-      <c r="O282">
+      <c r="Q282">
         <v>3.46</v>
       </c>
     </row>
-    <row r="283" spans="1:15">
+    <row r="283" spans="1:17">
       <c r="A283">
         <v>2.9366666666699999</v>
       </c>
@@ -12001,20 +12045,20 @@
       <c r="J283">
         <v>2.6019999999999999</v>
       </c>
-      <c r="L283">
-        <v>4.5</v>
-      </c>
-      <c r="M283" s="1">
+      <c r="N283">
+        <v>4.5</v>
+      </c>
+      <c r="O283" s="1">
         <v>2.2199999999999999E-6</v>
       </c>
-      <c r="N283" s="1">
+      <c r="P283" s="1">
         <v>2.2499999999999999E-7</v>
       </c>
-      <c r="O283">
+      <c r="Q283">
         <v>3.4620000000000002</v>
       </c>
     </row>
-    <row r="284" spans="1:15">
+    <row r="284" spans="1:17">
       <c r="A284">
         <v>2.94</v>
       </c>
@@ -12042,20 +12086,20 @@
       <c r="J284">
         <v>2.6040000000000001</v>
       </c>
-      <c r="L284">
-        <v>4.5</v>
-      </c>
-      <c r="M284" s="1">
+      <c r="N284">
+        <v>4.5</v>
+      </c>
+      <c r="O284" s="1">
         <v>2.21E-6</v>
       </c>
-      <c r="N284" s="1">
+      <c r="P284" s="1">
         <v>2.22E-7</v>
       </c>
-      <c r="O284">
+      <c r="Q284">
         <v>3.4660000000000002</v>
       </c>
     </row>
-    <row r="285" spans="1:15">
+    <row r="285" spans="1:17">
       <c r="A285">
         <v>2.94333333333</v>
       </c>
@@ -12083,20 +12127,20 @@
       <c r="J285">
         <v>2.6059999999999999</v>
       </c>
-      <c r="L285">
-        <v>4.5</v>
-      </c>
-      <c r="M285" s="1">
+      <c r="N285">
+        <v>4.5</v>
+      </c>
+      <c r="O285" s="1">
         <v>2.21E-6</v>
       </c>
-      <c r="N285" s="1">
+      <c r="P285" s="1">
         <v>2.2499999999999999E-7</v>
       </c>
-      <c r="O285">
+      <c r="Q285">
         <v>3.468</v>
       </c>
     </row>
-    <row r="286" spans="1:15">
+    <row r="286" spans="1:17">
       <c r="A286">
         <v>2.9466666666700001</v>
       </c>
@@ -12124,20 +12168,20 @@
       <c r="J286">
         <v>2.61</v>
       </c>
-      <c r="L286">
-        <v>4.5</v>
-      </c>
-      <c r="M286" s="1">
+      <c r="N286">
+        <v>4.5</v>
+      </c>
+      <c r="O286" s="1">
         <v>2.21E-6</v>
       </c>
-      <c r="N286" s="1">
+      <c r="P286" s="1">
         <v>2.2100000000000001E-7</v>
       </c>
-      <c r="O286">
+      <c r="Q286">
         <v>3.472</v>
       </c>
     </row>
-    <row r="287" spans="1:15">
+    <row r="287" spans="1:17">
       <c r="A287">
         <v>2.95</v>
       </c>
@@ -12165,20 +12209,20 @@
       <c r="J287">
         <v>2.6120000000000001</v>
       </c>
-      <c r="L287">
-        <v>4.5</v>
-      </c>
-      <c r="M287" s="1">
+      <c r="N287">
+        <v>4.5</v>
+      </c>
+      <c r="O287" s="1">
         <v>2.21E-6</v>
       </c>
-      <c r="N287" s="1">
+      <c r="P287" s="1">
         <v>2.1400000000000001E-7</v>
       </c>
-      <c r="O287">
+      <c r="Q287">
         <v>3.4740000000000002</v>
       </c>
     </row>
-    <row r="288" spans="1:15">
+    <row r="288" spans="1:17">
       <c r="A288">
         <v>2.9533333333299998</v>
       </c>
@@ -12206,20 +12250,20 @@
       <c r="J288">
         <v>2.6139999999999999</v>
       </c>
-      <c r="L288">
-        <v>4.5</v>
-      </c>
-      <c r="M288" s="1">
+      <c r="N288">
+        <v>4.5</v>
+      </c>
+      <c r="O288" s="1">
         <v>2.21E-6</v>
       </c>
-      <c r="N288" s="1">
+      <c r="P288" s="1">
         <v>2.2399999999999999E-7</v>
       </c>
-      <c r="O288">
+      <c r="Q288">
         <v>3.476</v>
       </c>
     </row>
-    <row r="289" spans="1:15">
+    <row r="289" spans="1:17">
       <c r="A289">
         <v>2.9566666666699999</v>
       </c>
@@ -12247,20 +12291,20 @@
       <c r="J289">
         <v>2.6179999999999999</v>
       </c>
-      <c r="L289">
-        <v>4.5</v>
-      </c>
-      <c r="M289" s="1">
+      <c r="N289">
+        <v>4.5</v>
+      </c>
+      <c r="O289" s="1">
         <v>2.21E-6</v>
       </c>
-      <c r="N289" s="1">
+      <c r="P289" s="1">
         <v>2.22E-7</v>
       </c>
-      <c r="O289">
+      <c r="Q289">
         <v>3.48</v>
       </c>
     </row>
-    <row r="290" spans="1:15">
+    <row r="290" spans="1:17">
       <c r="A290">
         <v>2.96</v>
       </c>
@@ -12288,20 +12332,20 @@
       <c r="J290">
         <v>2.62</v>
       </c>
-      <c r="L290">
-        <v>4.5</v>
-      </c>
-      <c r="M290" s="1">
+      <c r="N290">
+        <v>4.5</v>
+      </c>
+      <c r="O290" s="1">
         <v>2.21E-6</v>
       </c>
-      <c r="N290" s="1">
+      <c r="P290" s="1">
         <v>2.22E-7</v>
       </c>
-      <c r="O290">
+      <c r="Q290">
         <v>3.4820000000000002</v>
       </c>
     </row>
-    <row r="291" spans="1:15">
+    <row r="291" spans="1:17">
       <c r="A291">
         <v>2.96333333333</v>
       </c>
@@ -12329,20 +12373,20 @@
       <c r="J291">
         <v>2.6219999999999999</v>
       </c>
-      <c r="L291">
-        <v>4.5</v>
-      </c>
-      <c r="M291" s="1">
+      <c r="N291">
+        <v>4.5</v>
+      </c>
+      <c r="O291" s="1">
         <v>2.21E-6</v>
       </c>
-      <c r="N291" s="1">
+      <c r="P291" s="1">
         <v>2.23E-7</v>
       </c>
-      <c r="O291">
+      <c r="Q291">
         <v>3.484</v>
       </c>
     </row>
-    <row r="292" spans="1:15">
+    <row r="292" spans="1:17">
       <c r="A292">
         <v>2.9666666666700001</v>
       </c>
@@ -12370,20 +12414,20 @@
       <c r="J292">
         <v>2.6259999999999999</v>
       </c>
-      <c r="L292">
-        <v>4.5</v>
-      </c>
-      <c r="M292" s="1">
+      <c r="N292">
+        <v>4.5</v>
+      </c>
+      <c r="O292" s="1">
         <v>2.1900000000000002E-6</v>
       </c>
-      <c r="N292" s="1">
+      <c r="P292" s="1">
         <v>2.2100000000000001E-7</v>
       </c>
-      <c r="O292">
+      <c r="Q292">
         <v>3.488</v>
       </c>
     </row>
-    <row r="293" spans="1:15">
+    <row r="293" spans="1:17">
       <c r="A293">
         <v>2.97</v>
       </c>
@@ -12411,20 +12455,20 @@
       <c r="J293">
         <v>2.6280000000000001</v>
       </c>
-      <c r="L293">
-        <v>4.5</v>
-      </c>
-      <c r="M293" s="1">
+      <c r="N293">
+        <v>4.5</v>
+      </c>
+      <c r="O293" s="1">
         <v>2.2000000000000001E-6</v>
       </c>
-      <c r="N293" s="1">
+      <c r="P293" s="1">
         <v>2.1500000000000001E-7</v>
       </c>
-      <c r="O293">
+      <c r="Q293">
         <v>3.49</v>
       </c>
     </row>
-    <row r="294" spans="1:15">
+    <row r="294" spans="1:17">
       <c r="A294">
         <v>2.9733333333299998</v>
       </c>
@@ -12452,20 +12496,20 @@
       <c r="J294">
         <v>2.63</v>
       </c>
-      <c r="L294">
-        <v>4.5</v>
-      </c>
-      <c r="M294" s="1">
+      <c r="N294">
+        <v>4.5</v>
+      </c>
+      <c r="O294" s="1">
         <v>2.1900000000000002E-6</v>
       </c>
-      <c r="N294" s="1">
+      <c r="P294" s="1">
         <v>2.2999999999999999E-7</v>
       </c>
-      <c r="O294">
+      <c r="Q294">
         <v>3.492</v>
       </c>
     </row>
-    <row r="295" spans="1:15">
+    <row r="295" spans="1:17">
       <c r="A295">
         <v>2.9766666666699999</v>
       </c>
@@ -12493,20 +12537,20 @@
       <c r="J295">
         <v>2.6339999999999999</v>
       </c>
-      <c r="L295">
-        <v>4.5</v>
-      </c>
-      <c r="M295" s="1">
+      <c r="N295">
+        <v>4.5</v>
+      </c>
+      <c r="O295" s="1">
         <v>2.2000000000000001E-6</v>
       </c>
-      <c r="N295" s="1">
+      <c r="P295" s="1">
         <v>2.1799999999999999E-7</v>
       </c>
-      <c r="O295">
+      <c r="Q295">
         <v>3.496</v>
       </c>
     </row>
-    <row r="296" spans="1:15">
+    <row r="296" spans="1:17">
       <c r="A296">
         <v>2.98</v>
       </c>
@@ -12534,20 +12578,20 @@
       <c r="J296">
         <v>2.6360000000000001</v>
       </c>
-      <c r="L296">
-        <v>4.5</v>
-      </c>
-      <c r="M296" s="1">
+      <c r="N296">
+        <v>4.5</v>
+      </c>
+      <c r="O296" s="1">
         <v>2.1900000000000002E-6</v>
       </c>
-      <c r="N296" s="1">
+      <c r="P296" s="1">
         <v>2.23E-7</v>
       </c>
-      <c r="O296">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="297" spans="1:15">
+      <c r="Q296">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:17">
       <c r="A297">
         <v>2.9833333333300001</v>
       </c>
@@ -12575,20 +12619,20 @@
       <c r="J297">
         <v>2.6379999999999999</v>
       </c>
-      <c r="L297">
-        <v>4.5</v>
-      </c>
-      <c r="M297" s="1">
+      <c r="N297">
+        <v>4.5</v>
+      </c>
+      <c r="O297" s="1">
         <v>2.1900000000000002E-6</v>
       </c>
-      <c r="N297" s="1">
+      <c r="P297" s="1">
         <v>2.23E-7</v>
       </c>
-      <c r="O297">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="298" spans="1:15">
+      <c r="Q297">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:17">
       <c r="A298">
         <v>2.9866666666700001</v>
       </c>
@@ -12616,20 +12660,20 @@
       <c r="J298">
         <v>2.6419999999999999</v>
       </c>
-      <c r="L298">
-        <v>4.5</v>
-      </c>
-      <c r="M298" s="1">
+      <c r="N298">
+        <v>4.5</v>
+      </c>
+      <c r="O298" s="1">
         <v>2.1900000000000002E-6</v>
       </c>
-      <c r="N298" s="1">
+      <c r="P298" s="1">
         <v>2.17E-7</v>
       </c>
-      <c r="O298">
+      <c r="Q298">
         <v>3.5059999999999998</v>
       </c>
     </row>
-    <row r="299" spans="1:15">
+    <row r="299" spans="1:17">
       <c r="A299">
         <v>2.99</v>
       </c>
@@ -12657,20 +12701,20 @@
       <c r="J299">
         <v>2.6440000000000001</v>
       </c>
-      <c r="L299">
-        <v>4.5</v>
-      </c>
-      <c r="M299" s="1">
+      <c r="N299">
+        <v>4.5</v>
+      </c>
+      <c r="O299" s="1">
         <v>2.1900000000000002E-6</v>
       </c>
-      <c r="N299" s="1">
+      <c r="P299" s="1">
         <v>2.23E-7</v>
       </c>
-      <c r="O299">
+      <c r="Q299">
         <v>3.5059999999999998</v>
       </c>
     </row>
-    <row r="300" spans="1:15">
+    <row r="300" spans="1:17">
       <c r="A300">
         <v>2.9933333333299998</v>
       </c>
@@ -12698,20 +12742,20 @@
       <c r="J300">
         <v>2.6459999999999999</v>
       </c>
-      <c r="L300">
-        <v>4.5</v>
-      </c>
-      <c r="M300" s="1">
+      <c r="N300">
+        <v>4.5</v>
+      </c>
+      <c r="O300" s="1">
         <v>2.1799999999999999E-6</v>
       </c>
-      <c r="N300" s="1">
+      <c r="P300" s="1">
         <v>2.2100000000000001E-7</v>
       </c>
-      <c r="O300">
+      <c r="Q300">
         <v>3.51</v>
       </c>
     </row>
-    <row r="301" spans="1:15">
+    <row r="301" spans="1:17">
       <c r="A301">
         <v>2.9966666666699999</v>
       </c>
@@ -12739,20 +12783,20 @@
       <c r="J301">
         <v>2.65</v>
       </c>
-      <c r="L301">
-        <v>4.5</v>
-      </c>
-      <c r="M301" s="1">
+      <c r="N301">
+        <v>4.5</v>
+      </c>
+      <c r="O301" s="1">
         <v>2.1900000000000002E-6</v>
       </c>
-      <c r="N301" s="1">
+      <c r="P301" s="1">
         <v>2.2499999999999999E-7</v>
       </c>
-      <c r="O301">
+      <c r="Q301">
         <v>3.5139999999999998</v>
       </c>
     </row>
-    <row r="302" spans="1:15">
+    <row r="302" spans="1:17">
       <c r="A302">
         <v>3</v>
       </c>
@@ -12780,21 +12824,22 @@
       <c r="J302">
         <v>2.6520000000000001</v>
       </c>
-      <c r="L302">
-        <v>4.5</v>
-      </c>
-      <c r="M302" s="1">
+      <c r="N302">
+        <v>4.5</v>
+      </c>
+      <c r="O302" s="1">
         <v>2.1900000000000002E-6</v>
       </c>
-      <c r="N302" s="1">
+      <c r="P302" s="1">
         <v>2.23E-7</v>
       </c>
-      <c r="O302">
+      <c r="Q302">
         <v>3.516</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
